--- a/config/RutoValidEng.xlsx
+++ b/config/RutoValidEng.xlsx
@@ -1431,9 +1431,6 @@
     <t>Costa Rica</t>
   </si>
   <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
     <t>Dominican Republic</t>
   </si>
   <si>
@@ -1591,6 +1588,9 @@
   </si>
   <si>
     <t>France Afar</t>
+  </si>
+  <si>
+    <t>Czechia</t>
   </si>
 </sst>
 </file>
@@ -1634,7 +1634,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1642,31 +1642,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFC3D4E6"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFC3D4E6"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC3D4E6"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFC3D4E6"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1950,10 +1936,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:E262"/>
+  <dimension ref="A1:F262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="B232" sqref="B232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1965,7 +1951,7 @@
     <col min="6" max="6" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -1975,8 +1961,9 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1986,8 +1973,9 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1997,8 +1985,9 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2008,8 +1997,9 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2019,8 +2009,9 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2030,19 +2021,21 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2052,8 +2045,9 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2063,8 +2057,9 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2074,8 +2069,9 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -2085,8 +2081,9 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -2096,8 +2093,9 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2107,8 +2105,9 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2118,8 +2117,9 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -2129,8 +2129,9 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2140,8 +2141,9 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -2151,8 +2153,9 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2162,8 +2165,9 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2173,8 +2177,9 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -2184,8 +2189,9 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2201,9 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2206,8 +2213,9 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -2217,8 +2225,9 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -2228,8 +2237,9 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -2239,8 +2249,9 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -2250,8 +2261,9 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -2261,8 +2273,9 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -2272,8 +2285,9 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -2283,8 +2297,9 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -2294,8 +2309,9 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -2305,8 +2321,9 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -2316,8 +2333,9 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -2327,8 +2345,9 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -2338,8 +2357,9 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -2349,8 +2369,9 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -2360,8 +2381,9 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -2371,8 +2393,9 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>69</v>
       </c>
@@ -2382,8 +2405,9 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>460</v>
       </c>
@@ -2393,30 +2417,33 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>72</v>
       </c>
       <c r="B40" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>73</v>
       </c>
       <c r="B41" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>74</v>
       </c>
@@ -2426,8 +2453,9 @@
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>76</v>
       </c>
@@ -2437,8 +2465,9 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>78</v>
       </c>
@@ -2448,8 +2477,9 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>80</v>
       </c>
@@ -2459,8 +2489,9 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>82</v>
       </c>
@@ -2470,8 +2501,9 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -2481,8 +2513,9 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>86</v>
       </c>
@@ -2492,8 +2525,9 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>88</v>
       </c>
@@ -2503,8 +2537,9 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>90</v>
       </c>
@@ -2514,19 +2549,21 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>92</v>
       </c>
       <c r="B51" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>93</v>
       </c>
@@ -2536,8 +2573,9 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>95</v>
       </c>
@@ -2547,8 +2585,9 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>97</v>
       </c>
@@ -2558,8 +2597,9 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>99</v>
       </c>
@@ -2569,19 +2609,21 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-    </row>
-    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>101</v>
       </c>
       <c r="B56" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>102</v>
       </c>
@@ -2591,8 +2633,9 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-    </row>
-    <row r="58" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>104</v>
       </c>
@@ -2602,8 +2645,9 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>106</v>
       </c>
@@ -2613,8 +2657,9 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>108</v>
       </c>
@@ -2624,8 +2669,9 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-    </row>
-    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>110</v>
       </c>
@@ -2635,8 +2681,9 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-    </row>
-    <row r="62" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>113</v>
       </c>
@@ -2646,8 +2693,9 @@
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
-    </row>
-    <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>115</v>
       </c>
@@ -2657,8 +2705,9 @@
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-    </row>
-    <row r="64" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>117</v>
       </c>
@@ -2668,8 +2717,9 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-    </row>
-    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>119</v>
       </c>
@@ -2679,19 +2729,21 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-    </row>
-    <row r="66" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>461</v>
       </c>
       <c r="B66" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-    </row>
-    <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>121</v>
       </c>
@@ -2701,8 +2753,9 @@
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-    </row>
-    <row r="68" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>123</v>
       </c>
@@ -2712,19 +2765,21 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-    </row>
-    <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F68" s="2"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>125</v>
       </c>
       <c r="B69" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-    </row>
-    <row r="70" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>126</v>
       </c>
@@ -2734,8 +2789,9 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-    </row>
-    <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>128</v>
       </c>
@@ -2745,8 +2801,9 @@
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-    </row>
-    <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F71" s="2"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>130</v>
       </c>
@@ -2756,8 +2813,9 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-    </row>
-    <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F72" s="2"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>132</v>
       </c>
@@ -2767,8 +2825,9 @@
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-    </row>
-    <row r="74" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F73" s="2"/>
+    </row>
+    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>134</v>
       </c>
@@ -2778,8 +2837,9 @@
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-    </row>
-    <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F74" s="2"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>136</v>
       </c>
@@ -2789,8 +2849,9 @@
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-    </row>
-    <row r="76" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F75" s="2"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>457</v>
       </c>
@@ -2800,8 +2861,9 @@
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-    </row>
-    <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F76" s="2"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>138</v>
       </c>
@@ -2811,8 +2873,9 @@
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-    </row>
-    <row r="78" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F77" s="2"/>
+    </row>
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>140</v>
       </c>
@@ -2822,8 +2885,9 @@
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-    </row>
-    <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F78" s="2"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>142</v>
       </c>
@@ -2833,8 +2897,9 @@
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-    </row>
-    <row r="80" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>144</v>
       </c>
@@ -2844,8 +2909,9 @@
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-    </row>
-    <row r="81" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F80" s="2"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>146</v>
       </c>
@@ -2855,8 +2921,9 @@
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-    </row>
-    <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F81" s="2"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>148</v>
       </c>
@@ -2866,8 +2933,9 @@
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-    </row>
-    <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F82" s="2"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>150</v>
       </c>
@@ -2877,8 +2945,9 @@
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-    </row>
-    <row r="84" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F83" s="2"/>
+    </row>
+    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>152</v>
       </c>
@@ -2888,8 +2957,9 @@
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-    </row>
-    <row r="85" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F84" s="2"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>154</v>
       </c>
@@ -2899,8 +2969,9 @@
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-    </row>
-    <row r="86" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F85" s="2"/>
+    </row>
+    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>156</v>
       </c>
@@ -2910,8 +2981,9 @@
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-    </row>
-    <row r="87" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F86" s="2"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>158</v>
       </c>
@@ -2921,8 +2993,9 @@
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-    </row>
-    <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F87" s="2"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>160</v>
       </c>
@@ -2932,8 +3005,9 @@
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-    </row>
-    <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F88" s="2"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>162</v>
       </c>
@@ -2943,8 +3017,9 @@
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-    </row>
-    <row r="90" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F89" s="2"/>
+    </row>
+    <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>164</v>
       </c>
@@ -2954,8 +3029,9 @@
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-    </row>
-    <row r="91" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F90" s="2"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>166</v>
       </c>
@@ -2965,8 +3041,9 @@
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-    </row>
-    <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F91" s="2"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>168</v>
       </c>
@@ -2976,8 +3053,9 @@
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-    </row>
-    <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F92" s="2"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>170</v>
       </c>
@@ -2987,8 +3065,9 @@
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-    </row>
-    <row r="94" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F93" s="2"/>
+    </row>
+    <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>172</v>
       </c>
@@ -2998,8 +3077,9 @@
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-    </row>
-    <row r="95" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F94" s="2"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>174</v>
       </c>
@@ -3009,8 +3089,9 @@
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-    </row>
-    <row r="96" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F95" s="2"/>
+    </row>
+    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>176</v>
       </c>
@@ -3020,41 +3101,45 @@
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
-    </row>
-    <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F96" s="2"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>462</v>
       </c>
       <c r="B97" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-    </row>
-    <row r="98" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F97" s="2"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>429</v>
       </c>
       <c r="B98" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
-    </row>
-    <row r="99" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F98" s="2"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>430</v>
       </c>
       <c r="B99" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
-    </row>
-    <row r="100" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F99" s="2"/>
+    </row>
+    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>178</v>
       </c>
@@ -3064,19 +3149,21 @@
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
-    </row>
-    <row r="101" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F100" s="2"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>179</v>
       </c>
       <c r="B101" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
-    </row>
-    <row r="102" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F101" s="2"/>
+    </row>
+    <row r="102" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>180</v>
       </c>
@@ -3086,8 +3173,9 @@
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
-    </row>
-    <row r="103" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F102" s="2"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>182</v>
       </c>
@@ -3097,8 +3185,9 @@
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
-    </row>
-    <row r="104" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F103" s="2"/>
+    </row>
+    <row r="104" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>184</v>
       </c>
@@ -3108,8 +3197,9 @@
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
-    </row>
-    <row r="105" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F104" s="2"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>185</v>
       </c>
@@ -3119,8 +3209,9 @@
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
-    </row>
-    <row r="106" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F105" s="2"/>
+    </row>
+    <row r="106" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>186</v>
       </c>
@@ -3130,8 +3221,9 @@
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
-    </row>
-    <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F106" s="2"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>188</v>
       </c>
@@ -3141,8 +3233,9 @@
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
-    </row>
-    <row r="108" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F107" s="2"/>
+    </row>
+    <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>190</v>
       </c>
@@ -3152,8 +3245,9 @@
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
-    </row>
-    <row r="109" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F108" s="2"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>453</v>
       </c>
@@ -3163,8 +3257,9 @@
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
-    </row>
-    <row r="110" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F109" s="2"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>192</v>
       </c>
@@ -3174,8 +3269,9 @@
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
-    </row>
-    <row r="111" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F110" s="2"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>194</v>
       </c>
@@ -3185,8 +3281,9 @@
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
-    </row>
-    <row r="112" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F111" s="2"/>
+    </row>
+    <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>196</v>
       </c>
@@ -3196,8 +3293,9 @@
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
-    </row>
-    <row r="113" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F112" s="2"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>198</v>
       </c>
@@ -3207,8 +3305,9 @@
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
-    </row>
-    <row r="114" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F113" s="2"/>
+    </row>
+    <row r="114" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>200</v>
       </c>
@@ -3218,8 +3317,9 @@
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
-    </row>
-    <row r="115" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F114" s="2"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>202</v>
       </c>
@@ -3229,8 +3329,9 @@
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
-    </row>
-    <row r="116" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F115" s="2"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>204</v>
       </c>
@@ -3240,8 +3341,9 @@
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
-    </row>
-    <row r="117" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F116" s="2"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>206</v>
       </c>
@@ -3251,8 +3353,9 @@
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
-    </row>
-    <row r="118" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F117" s="2"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>208</v>
       </c>
@@ -3262,8 +3365,9 @@
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
-    </row>
-    <row r="119" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F118" s="2"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>210</v>
       </c>
@@ -3273,8 +3377,9 @@
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
-    </row>
-    <row r="120" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F119" s="2"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>212</v>
       </c>
@@ -3284,8 +3389,9 @@
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
-    </row>
-    <row r="121" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F120" s="2"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>214</v>
       </c>
@@ -3295,8 +3401,9 @@
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
-    </row>
-    <row r="122" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F121" s="2"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>216</v>
       </c>
@@ -3306,8 +3413,9 @@
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
-    </row>
-    <row r="123" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F122" s="2"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>218</v>
       </c>
@@ -3317,8 +3425,9 @@
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
-    </row>
-    <row r="124" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F123" s="2"/>
+    </row>
+    <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>220</v>
       </c>
@@ -3328,8 +3437,9 @@
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
-    </row>
-    <row r="125" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F124" s="2"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>222</v>
       </c>
@@ -3339,8 +3449,9 @@
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
-    </row>
-    <row r="126" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F125" s="2"/>
+    </row>
+    <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>224</v>
       </c>
@@ -3350,8 +3461,9 @@
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
-    </row>
-    <row r="127" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F126" s="2"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>226</v>
       </c>
@@ -3361,8 +3473,9 @@
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-    </row>
-    <row r="128" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F127" s="2"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>228</v>
       </c>
@@ -3372,8 +3485,9 @@
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
-    </row>
-    <row r="129" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F128" s="2"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>112</v>
       </c>
@@ -3383,8 +3497,9 @@
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
-    </row>
-    <row r="130" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F129" s="2"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>230</v>
       </c>
@@ -3394,8 +3509,9 @@
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
-    </row>
-    <row r="131" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F130" s="2"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>415</v>
       </c>
@@ -3405,8 +3521,9 @@
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
-    </row>
-    <row r="132" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F131" s="2"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>233</v>
       </c>
@@ -3416,8 +3533,9 @@
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
-    </row>
-    <row r="133" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F132" s="2"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>235</v>
       </c>
@@ -3427,8 +3545,9 @@
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
-    </row>
-    <row r="134" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F133" s="2"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>237</v>
       </c>
@@ -3438,8 +3557,9 @@
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
-    </row>
-    <row r="135" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F134" s="2"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>239</v>
       </c>
@@ -3449,8 +3569,9 @@
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
-    </row>
-    <row r="136" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F135" s="2"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>241</v>
       </c>
@@ -3460,8 +3581,9 @@
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
-    </row>
-    <row r="137" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F136" s="2"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>243</v>
       </c>
@@ -3471,8 +3593,9 @@
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
-    </row>
-    <row r="138" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F137" s="2"/>
+    </row>
+    <row r="138" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>245</v>
       </c>
@@ -3482,8 +3605,9 @@
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
-    </row>
-    <row r="139" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F138" s="2"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>247</v>
       </c>
@@ -3493,8 +3617,9 @@
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
-    </row>
-    <row r="140" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F139" s="2"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>249</v>
       </c>
@@ -3504,8 +3629,9 @@
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
-    </row>
-    <row r="141" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F140" s="2"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>251</v>
       </c>
@@ -3515,8 +3641,9 @@
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
-    </row>
-    <row r="142" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F141" s="2"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>253</v>
       </c>
@@ -3526,8 +3653,9 @@
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
-    </row>
-    <row r="143" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F142" s="2"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>255</v>
       </c>
@@ -3537,30 +3665,33 @@
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
-    </row>
-    <row r="144" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F143" s="2"/>
+    </row>
+    <row r="144" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>257</v>
       </c>
       <c r="B144" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
-    </row>
-    <row r="145" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F144" s="2"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>258</v>
       </c>
       <c r="B145" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
-    </row>
-    <row r="146" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F145" s="2"/>
+    </row>
+    <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>259</v>
       </c>
@@ -3570,19 +3701,21 @@
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
-    </row>
-    <row r="147" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F146" s="2"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>417</v>
       </c>
       <c r="B147" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
-    </row>
-    <row r="148" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F147" s="2"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>261</v>
       </c>
@@ -3592,96 +3725,105 @@
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
-    </row>
-    <row r="149" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F148" s="2"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>263</v>
       </c>
       <c r="B149" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
-    </row>
-    <row r="150" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F149" s="2"/>
+    </row>
+    <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>264</v>
       </c>
       <c r="B150" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
-    </row>
-    <row r="151" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F150" s="2"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>265</v>
       </c>
       <c r="B151" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
-    </row>
-    <row r="152" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F151" s="2"/>
+    </row>
+    <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>266</v>
       </c>
       <c r="B152" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
-    </row>
-    <row r="153" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F152" s="2"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>267</v>
       </c>
       <c r="B153" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
-    </row>
-    <row r="154" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F153" s="2"/>
+    </row>
+    <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>268</v>
       </c>
       <c r="B154" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
-    </row>
-    <row r="155" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F154" s="2"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>269</v>
       </c>
       <c r="B155" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
-    </row>
-    <row r="156" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F155" s="2"/>
+    </row>
+    <row r="156" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>270</v>
       </c>
       <c r="B156" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
-    </row>
-    <row r="157" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F156" s="2"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>271</v>
       </c>
@@ -3691,8 +3833,9 @@
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
-    </row>
-    <row r="158" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F157" s="2"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>273</v>
       </c>
@@ -3702,8 +3845,9 @@
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
-    </row>
-    <row r="159" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F158" s="2"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>449</v>
       </c>
@@ -3713,8 +3857,9 @@
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
-    </row>
-    <row r="160" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F159" s="2"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>275</v>
       </c>
@@ -3724,8 +3869,9 @@
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
-    </row>
-    <row r="161" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F160" s="2"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>447</v>
       </c>
@@ -3735,19 +3881,21 @@
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
-    </row>
-    <row r="162" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F161" s="2"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>277</v>
       </c>
       <c r="B162" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
-    </row>
-    <row r="163" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F162" s="2"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>278</v>
       </c>
@@ -3757,8 +3905,9 @@
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
-    </row>
-    <row r="164" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F163" s="2"/>
+    </row>
+    <row r="164" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>280</v>
       </c>
@@ -3768,8 +3917,9 @@
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
-    </row>
-    <row r="165" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F164" s="2"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>282</v>
       </c>
@@ -3779,8 +3929,9 @@
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
-    </row>
-    <row r="166" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F165" s="2"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>284</v>
       </c>
@@ -3790,8 +3941,9 @@
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
-    </row>
-    <row r="167" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F166" s="2"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>286</v>
       </c>
@@ -3801,19 +3953,21 @@
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
-    </row>
-    <row r="168" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F167" s="2"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>288</v>
       </c>
       <c r="B168" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
-    </row>
-    <row r="169" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F168" s="2"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>289</v>
       </c>
@@ -3823,8 +3977,9 @@
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
-    </row>
-    <row r="170" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F169" s="2"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>290</v>
       </c>
@@ -3834,8 +3989,9 @@
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
-    </row>
-    <row r="171" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F170" s="2"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>292</v>
       </c>
@@ -3845,8 +4001,9 @@
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
-    </row>
-    <row r="172" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F171" s="2"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>293</v>
       </c>
@@ -3856,8 +4013,9 @@
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
-    </row>
-    <row r="173" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F172" s="2"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>295</v>
       </c>
@@ -3867,8 +4025,9 @@
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
-    </row>
-    <row r="174" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F173" s="2"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>297</v>
       </c>
@@ -3878,8 +4037,9 @@
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
-    </row>
-    <row r="175" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F174" s="2"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>299</v>
       </c>
@@ -3889,30 +4049,33 @@
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
-    </row>
-    <row r="176" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F175" s="2"/>
+    </row>
+    <row r="176" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>300</v>
       </c>
       <c r="B176" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
-    </row>
-    <row r="177" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F176" s="2"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>301</v>
       </c>
       <c r="B177" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
-    </row>
-    <row r="178" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F177" s="2"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>302</v>
       </c>
@@ -3922,41 +4085,45 @@
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
-    </row>
-    <row r="179" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F178" s="2"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>304</v>
       </c>
       <c r="B179" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
-    </row>
-    <row r="180" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F179" s="2"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>305</v>
       </c>
       <c r="B180" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
-    </row>
-    <row r="181" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F180" s="2"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>306</v>
       </c>
       <c r="B181" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
-    </row>
-    <row r="182" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F181" s="2"/>
+    </row>
+    <row r="182" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>307</v>
       </c>
@@ -3966,52 +4133,57 @@
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
-    </row>
-    <row r="183" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F182" s="2"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>309</v>
       </c>
       <c r="B183" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
-    </row>
-    <row r="184" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F183" s="2"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>310</v>
       </c>
       <c r="B184" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
-    </row>
-    <row r="185" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F184" s="2"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>311</v>
       </c>
       <c r="B185" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
-    </row>
-    <row r="186" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F185" s="2"/>
+    </row>
+    <row r="186" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>312</v>
       </c>
       <c r="B186" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
-    </row>
-    <row r="187" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F186" s="2"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>313</v>
       </c>
@@ -4021,8 +4193,9 @@
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
-    </row>
-    <row r="188" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F187" s="2"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>315</v>
       </c>
@@ -4032,8 +4205,9 @@
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
-    </row>
-    <row r="189" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F188" s="2"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>317</v>
       </c>
@@ -4043,19 +4217,21 @@
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
-    </row>
-    <row r="190" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F189" s="2"/>
+    </row>
+    <row r="190" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>319</v>
       </c>
       <c r="B190" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
-    </row>
-    <row r="191" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F190" s="2"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>421</v>
       </c>
@@ -4065,8 +4241,9 @@
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
-    </row>
-    <row r="192" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F191" s="2"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>320</v>
       </c>
@@ -4076,8 +4253,9 @@
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
-    </row>
-    <row r="193" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F192" s="2"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>322</v>
       </c>
@@ -4087,462 +4265,681 @@
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
-    </row>
-    <row r="194" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F193" s="2"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>409</v>
       </c>
       <c r="B194" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
-    </row>
-    <row r="195" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F194" s="2"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>420</v>
       </c>
       <c r="B195" t="s">
         <v>463</v>
       </c>
-      <c r="C195" s="2"/>
-      <c r="D195" s="2"/>
-      <c r="E195" s="2"/>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C195" s="3"/>
+      <c r="D195" s="3"/>
+      <c r="E195" s="3"/>
+      <c r="F195" s="2"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>324</v>
       </c>
       <c r="B196" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>325</v>
       </c>
       <c r="B197" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>327</v>
       </c>
       <c r="B198" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C198" s="2"/>
+      <c r="D198" s="2"/>
+      <c r="E198" s="2"/>
+      <c r="F198" s="2"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>329</v>
       </c>
       <c r="B199" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>331</v>
       </c>
       <c r="B200" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>333</v>
       </c>
       <c r="B201" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+      <c r="F201" s="2"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>335</v>
       </c>
       <c r="B202" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
+      <c r="E202" s="2"/>
+      <c r="F202" s="2"/>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>422</v>
       </c>
       <c r="B203" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
+    </row>
+    <row r="204" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>423</v>
       </c>
       <c r="B204" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C204" s="2"/>
+      <c r="D204" s="2"/>
+      <c r="E204" s="2"/>
+      <c r="F204" s="2"/>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>337</v>
       </c>
       <c r="B205" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C205" s="2"/>
+      <c r="D205" s="2"/>
+      <c r="E205" s="2"/>
+      <c r="F205" s="2"/>
+    </row>
+    <row r="206" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>339</v>
       </c>
       <c r="B206" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C206" s="2"/>
+      <c r="D206" s="2"/>
+      <c r="E206" s="2"/>
+      <c r="F206" s="2"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>341</v>
       </c>
       <c r="B207" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C207" s="2"/>
+      <c r="D207" s="2"/>
+      <c r="E207" s="2"/>
+      <c r="F207" s="2"/>
+    </row>
+    <row r="208" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>343</v>
       </c>
       <c r="B208" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C208" s="2"/>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>459</v>
       </c>
       <c r="B209" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+      <c r="C209" s="2"/>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
+    </row>
+    <row r="210" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>345</v>
       </c>
       <c r="B210" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C210" s="2"/>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>347</v>
       </c>
       <c r="B211" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+    </row>
+    <row r="212" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>349</v>
       </c>
       <c r="B212" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>351</v>
       </c>
       <c r="B213" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>353</v>
       </c>
       <c r="B214" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C214" s="2"/>
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>355</v>
       </c>
       <c r="B215" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C215" s="2"/>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2"/>
+      <c r="F215" s="2"/>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>357</v>
       </c>
       <c r="B216" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C216" s="2"/>
+      <c r="D216" s="2"/>
+      <c r="E216" s="2"/>
+      <c r="F216" s="2"/>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>359</v>
       </c>
       <c r="B217" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+      <c r="C217" s="2"/>
+      <c r="D217" s="2"/>
+      <c r="E217" s="2"/>
+      <c r="F217" s="2"/>
+    </row>
+    <row r="218" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>360</v>
       </c>
       <c r="B218" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C218" s="2"/>
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
+      <c r="F218" s="2"/>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>362</v>
       </c>
       <c r="B219" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+      <c r="F219" s="2"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>363</v>
       </c>
       <c r="B220" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C220" s="2"/>
+      <c r="D220" s="2"/>
+      <c r="E220" s="2"/>
+      <c r="F220" s="2"/>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>365</v>
       </c>
       <c r="B221" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C221" s="2"/>
+      <c r="D221" s="2"/>
+      <c r="E221" s="2"/>
+      <c r="F221" s="2"/>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>367</v>
       </c>
       <c r="B222" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C222" s="2"/>
+      <c r="D222" s="2"/>
+      <c r="E222" s="2"/>
+      <c r="F222" s="2"/>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>442</v>
       </c>
       <c r="B223" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+      <c r="C223" s="2"/>
+      <c r="D223" s="2"/>
+      <c r="E223" s="2"/>
+      <c r="F223" s="2"/>
+    </row>
+    <row r="224" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>369</v>
       </c>
       <c r="B224" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C224" s="2"/>
+      <c r="D224" s="2"/>
+      <c r="E224" s="2"/>
+      <c r="F224" s="2"/>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>371</v>
       </c>
       <c r="B225" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+      <c r="C225" s="2"/>
+      <c r="D225" s="2"/>
+      <c r="E225" s="2"/>
+      <c r="F225" s="2"/>
+    </row>
+    <row r="226" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>372</v>
       </c>
       <c r="B226" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+      <c r="C226" s="2"/>
+      <c r="D226" s="2"/>
+      <c r="E226" s="2"/>
+      <c r="F226" s="2"/>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>373</v>
       </c>
       <c r="B227" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+      <c r="C227" s="2"/>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
+      <c r="F227" s="2"/>
+    </row>
+    <row r="228" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>374</v>
       </c>
       <c r="B228" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C228" s="2"/>
+      <c r="D228" s="2"/>
+      <c r="E228" s="2"/>
+      <c r="F228" s="2"/>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>376</v>
       </c>
       <c r="B229" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C229" s="2"/>
+      <c r="D229" s="2"/>
+      <c r="E229" s="2"/>
+      <c r="F229" s="2"/>
+    </row>
+    <row r="230" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>377</v>
       </c>
       <c r="B230" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C230" s="2"/>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="2"/>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>379</v>
       </c>
       <c r="B231" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C231" s="2"/>
+      <c r="D231" s="2"/>
+      <c r="E231" s="2"/>
+      <c r="F231" s="2"/>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>425</v>
       </c>
       <c r="B232" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="C232" s="2"/>
+      <c r="D232" s="2"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>381</v>
       </c>
       <c r="B233" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C233" s="2"/>
+      <c r="D233" s="2"/>
+      <c r="E233" s="2"/>
+      <c r="F233" s="2"/>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>383</v>
       </c>
       <c r="B234" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C234" s="2"/>
+      <c r="D234" s="2"/>
+      <c r="E234" s="2"/>
+      <c r="F234" s="2"/>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>385</v>
       </c>
       <c r="B235" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C235" s="2"/>
+      <c r="D235" s="2"/>
+      <c r="E235" s="2"/>
+      <c r="F235" s="2"/>
+    </row>
+    <row r="236" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>441</v>
       </c>
       <c r="B236" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C236" s="2"/>
+      <c r="D236" s="2"/>
+      <c r="E236" s="2"/>
+      <c r="F236" s="2"/>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>387</v>
       </c>
       <c r="B237" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+      <c r="C237" s="2"/>
+      <c r="D237" s="2"/>
+      <c r="E237" s="2"/>
+      <c r="F237" s="2"/>
+    </row>
+    <row r="238" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>388</v>
       </c>
       <c r="B238" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C238" s="2"/>
+      <c r="D238" s="2"/>
+      <c r="E238" s="2"/>
+      <c r="F238" s="2"/>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>390</v>
       </c>
       <c r="B239" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+      <c r="C239" s="2"/>
+      <c r="D239" s="2"/>
+      <c r="E239" s="2"/>
+      <c r="F239" s="2"/>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>391</v>
       </c>
       <c r="B240" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+      <c r="C240" s="2"/>
+      <c r="D240" s="2"/>
+      <c r="E240" s="2"/>
+      <c r="F240" s="2"/>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>392</v>
       </c>
       <c r="B241" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+      <c r="C241" s="2"/>
+      <c r="D241" s="2"/>
+      <c r="E241" s="2"/>
+      <c r="F241" s="2"/>
+    </row>
+    <row r="242" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>393</v>
       </c>
       <c r="B242" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C242" s="2"/>
+      <c r="D242" s="2"/>
+      <c r="E242" s="2"/>
+      <c r="F242" s="2"/>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>395</v>
       </c>
       <c r="B243" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C243" s="2"/>
+      <c r="D243" s="2"/>
+      <c r="E243" s="2"/>
+      <c r="F243" s="2"/>
+    </row>
+    <row r="244" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>397</v>
       </c>
       <c r="B244" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C244" s="2"/>
+      <c r="D244" s="2"/>
+      <c r="E244" s="2"/>
+      <c r="F244" s="2"/>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>399</v>
       </c>
       <c r="B245" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C245" s="2"/>
+      <c r="D245" s="2"/>
+      <c r="E245" s="2"/>
+      <c r="F245" s="2"/>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>427</v>
       </c>
       <c r="B246" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+      <c r="C246" s="2"/>
+      <c r="D246" s="2"/>
+      <c r="E246" s="2"/>
+      <c r="F246" s="2"/>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>401</v>
       </c>
       <c r="B247" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C247" s="2"/>
+      <c r="D247" s="2"/>
+      <c r="E247" s="2"/>
+      <c r="F247" s="2"/>
+    </row>
+    <row r="248" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>403</v>
       </c>
       <c r="B248" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+      <c r="C248" s="2"/>
+      <c r="D248" s="2"/>
+      <c r="E248" s="2"/>
+      <c r="F248" s="2"/>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>404</v>
       </c>
       <c r="B249" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+      <c r="C249" s="2"/>
+      <c r="D249" s="2"/>
+      <c r="E249" s="2"/>
+      <c r="F249" s="2"/>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>405</v>
       </c>
@@ -4550,7 +4947,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>407</v>
       </c>
@@ -4558,7 +4955,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>410</v>
       </c>
@@ -4566,7 +4963,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>411</v>
       </c>
@@ -4574,7 +4971,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>412</v>
       </c>
@@ -4582,7 +4979,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>413</v>
       </c>
@@ -4590,7 +4987,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>414</v>
       </c>
@@ -4603,7 +5000,7 @@
         <v>416</v>
       </c>
       <c r="B257" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -4611,7 +5008,7 @@
         <v>418</v>
       </c>
       <c r="B258" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -4627,7 +5024,7 @@
         <v>424</v>
       </c>
       <c r="B260" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">

--- a/config/RutoValidEng.xlsx
+++ b/config/RutoValidEng.xlsx
@@ -1938,8 +1938,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:F262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="B232" sqref="B232"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/config/RutoValidEng.xlsx
+++ b/config/RutoValidEng.xlsx
@@ -1356,9 +1356,6 @@
     <t>Taiwan</t>
   </si>
   <si>
-    <t>Syrian</t>
-  </si>
-  <si>
     <t>Macedonia</t>
   </si>
   <si>
@@ -1419,27 +1416,15 @@
     <t>Antigua and Barbuda</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
     <t>Burkina Faso</t>
   </si>
   <si>
-    <t>Central African Republic</t>
-  </si>
-  <si>
     <t>Costa Rica</t>
   </si>
   <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
     <t>El Salvador</t>
   </si>
   <si>
-    <t>Equatorial Guinea</t>
-  </si>
-  <si>
     <t>French Guiana</t>
   </si>
   <si>
@@ -1473,9 +1458,6 @@
     <t>South Korea</t>
   </si>
   <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
     <t>Sri Lanka</t>
   </si>
   <si>
@@ -1488,15 +1470,6 @@
     <t>United Kingdom</t>
   </si>
   <si>
-    <t>Western Sahara</t>
-  </si>
-  <si>
-    <t>The Democratic Republic of the Congo</t>
-  </si>
-  <si>
-    <t>Cote d’Ivoire</t>
-  </si>
-  <si>
     <t>New Zealand</t>
   </si>
   <si>
@@ -1506,9 +1479,6 @@
     <t>Sao Tome and Principe</t>
   </si>
   <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
     <t>New Caledonia</t>
   </si>
   <si>
@@ -1566,9 +1536,6 @@
     <t>Faroe Islands</t>
   </si>
   <si>
-    <t>Falkland Islands</t>
-  </si>
-  <si>
     <t>French Polynesia</t>
   </si>
   <si>
@@ -1591,6 +1558,39 @@
   </si>
   <si>
     <t>Czechia</t>
+  </si>
+  <si>
+    <t>W. Sahara</t>
+  </si>
+  <si>
+    <t>Dem. Rep. Congo</t>
+  </si>
+  <si>
+    <t>Dominican Rep.</t>
+  </si>
+  <si>
+    <t>Falkland Is.</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>Central African Rep.</t>
+  </si>
+  <si>
+    <t>Eq. Guinea</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Solomon Is.</t>
+  </si>
+  <si>
+    <t>Bosnia and Herz.</t>
+  </si>
+  <si>
+    <t>S. Sudan</t>
   </si>
 </sst>
 </file>
@@ -1938,8 +1938,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:F262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="B200" sqref="B200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2028,7 +2028,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2088,7 +2088,7 @@
         <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2280,7 +2280,7 @@
         <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2292,7 +2292,7 @@
         <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>466</v>
+        <v>522</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2352,7 +2352,7 @@
         <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -2397,10 +2397,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>446</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>447</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2409,10 +2409,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>460</v>
+        <v>409</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>482</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2421,10 +2421,10 @@
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B40" t="s">
-        <v>502</v>
+        <v>70</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -2433,10 +2433,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>459</v>
       </c>
       <c r="B41" t="s">
-        <v>503</v>
+        <v>71</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2445,10 +2445,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>492</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2457,10 +2457,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>493</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2469,10 +2469,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>410</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>439</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2481,10 +2481,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2493,10 +2493,10 @@
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2505,10 +2505,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2517,10 +2517,10 @@
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2529,10 +2529,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2541,10 +2541,10 @@
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B50" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2553,10 +2553,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B51" t="s">
-        <v>474</v>
+        <v>87</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2565,10 +2565,10 @@
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B52" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2577,10 +2577,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B53" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2589,10 +2589,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B54" t="s">
-        <v>98</v>
+        <v>469</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2601,10 +2601,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B55" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2613,10 +2613,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>101</v>
+        <v>411</v>
       </c>
       <c r="B56" t="s">
-        <v>475</v>
+        <v>438</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2625,10 +2625,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>102</v>
+        <v>412</v>
       </c>
       <c r="B57" t="s">
-        <v>103</v>
+        <v>437</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2637,10 +2637,10 @@
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B58" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2649,10 +2649,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B59" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2661,10 +2661,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B60" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2673,10 +2673,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B61" t="s">
-        <v>111</v>
+        <v>470</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2685,10 +2685,10 @@
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B62" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2697,10 +2697,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B63" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2709,10 +2709,10 @@
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B64" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2721,10 +2721,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B65" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2733,10 +2733,10 @@
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>461</v>
+        <v>110</v>
       </c>
       <c r="B66" t="s">
-        <v>470</v>
+        <v>111</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2745,10 +2745,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B67" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2757,10 +2757,10 @@
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B68" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2769,10 +2769,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B69" t="s">
-        <v>489</v>
+        <v>118</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2781,10 +2781,10 @@
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B70" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2793,10 +2793,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>128</v>
+        <v>460</v>
       </c>
       <c r="B71" t="s">
-        <v>129</v>
+        <v>515</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2805,10 +2805,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B72" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2817,10 +2817,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B73" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2829,10 +2829,10 @@
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>134</v>
+        <v>413</v>
       </c>
       <c r="B74" t="s">
-        <v>135</v>
+        <v>436</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2841,10 +2841,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B75" t="s">
-        <v>137</v>
+        <v>513</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2853,10 +2853,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>457</v>
+        <v>126</v>
       </c>
       <c r="B76" t="s">
-        <v>456</v>
+        <v>127</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2865,10 +2865,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B77" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2877,10 +2877,10 @@
     </row>
     <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B78" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2889,10 +2889,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B79" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2901,10 +2901,10 @@
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2913,10 +2913,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B81" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2925,10 +2925,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>148</v>
+        <v>456</v>
       </c>
       <c r="B82" t="s">
-        <v>149</v>
+        <v>455</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2937,10 +2937,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B83" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2949,10 +2949,10 @@
     </row>
     <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B84" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2961,10 +2961,10 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B85" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2973,10 +2973,10 @@
     </row>
     <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B86" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2985,10 +2985,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B87" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2997,10 +2997,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B88" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3009,10 +3009,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B89" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3021,10 +3021,10 @@
     </row>
     <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B90" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3033,10 +3033,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B91" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3045,10 +3045,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B92" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3057,10 +3057,10 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B93" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3069,10 +3069,10 @@
     </row>
     <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B94" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3081,10 +3081,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="B95" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3093,10 +3093,10 @@
     </row>
     <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B96" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3105,10 +3105,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>462</v>
+        <v>166</v>
       </c>
       <c r="B97" t="s">
-        <v>490</v>
+        <v>167</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3117,10 +3117,10 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>429</v>
+        <v>168</v>
       </c>
       <c r="B98" t="s">
-        <v>477</v>
+        <v>169</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3129,10 +3129,10 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>430</v>
+        <v>170</v>
       </c>
       <c r="B99" t="s">
-        <v>483</v>
+        <v>171</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -3141,10 +3141,10 @@
     </row>
     <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B100" t="s">
-        <v>469</v>
+        <v>173</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3153,10 +3153,10 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B101" t="s">
-        <v>491</v>
+        <v>175</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -3165,10 +3165,10 @@
     </row>
     <row r="102" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B102" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3177,10 +3177,10 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>182</v>
+        <v>461</v>
       </c>
       <c r="B103" t="s">
-        <v>183</v>
+        <v>514</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3189,10 +3189,10 @@
     </row>
     <row r="104" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B104" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3201,10 +3201,10 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B105" t="s">
-        <v>454</v>
+        <v>517</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3213,10 +3213,10 @@
     </row>
     <row r="106" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>186</v>
+        <v>414</v>
       </c>
       <c r="B106" t="s">
-        <v>187</v>
+        <v>435</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3225,10 +3225,10 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B107" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -3237,10 +3237,10 @@
     </row>
     <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B108" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -3249,10 +3249,10 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>453</v>
+        <v>184</v>
       </c>
       <c r="B109" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -3261,10 +3261,10 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B110" t="s">
-        <v>193</v>
+        <v>453</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -3273,10 +3273,10 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B111" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -3285,10 +3285,10 @@
     </row>
     <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B112" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -3297,10 +3297,10 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B113" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -3309,10 +3309,10 @@
     </row>
     <row r="114" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B114" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3321,10 +3321,10 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>202</v>
+        <v>452</v>
       </c>
       <c r="B115" t="s">
-        <v>203</v>
+        <v>451</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -3333,10 +3333,10 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B116" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -3345,10 +3345,10 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B117" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -3357,10 +3357,10 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B118" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -3369,10 +3369,10 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B119" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -3381,10 +3381,10 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B120" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -3393,10 +3393,10 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B121" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -3405,10 +3405,10 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B122" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -3417,10 +3417,10 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B123" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -3429,10 +3429,10 @@
     </row>
     <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B124" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -3441,10 +3441,10 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B125" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -3453,10 +3453,10 @@
     </row>
     <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B126" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -3465,10 +3465,10 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B127" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -3477,10 +3477,10 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B128" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -3489,10 +3489,10 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="B129" t="s">
-        <v>451</v>
+        <v>221</v>
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3501,10 +3501,10 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B130" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3513,10 +3513,10 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>415</v>
+        <v>224</v>
       </c>
       <c r="B131" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -3525,10 +3525,10 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B132" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3537,10 +3537,10 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B133" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3549,10 +3549,10 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>237</v>
+        <v>112</v>
       </c>
       <c r="B134" t="s">
-        <v>238</v>
+        <v>450</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -3561,10 +3561,10 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B135" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -3573,10 +3573,10 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>241</v>
+        <v>415</v>
       </c>
       <c r="B136" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -3585,10 +3585,10 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B137" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -3597,10 +3597,10 @@
     </row>
     <row r="138" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B138" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -3609,10 +3609,10 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B139" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -3621,10 +3621,10 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B140" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3633,10 +3633,10 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B141" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -3645,10 +3645,10 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B142" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3657,10 +3657,10 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B143" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -3669,10 +3669,10 @@
     </row>
     <row r="144" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B144" t="s">
-        <v>492</v>
+        <v>248</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3681,10 +3681,10 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B145" t="s">
-        <v>496</v>
+        <v>250</v>
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -3693,10 +3693,10 @@
     </row>
     <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>259</v>
+        <v>416</v>
       </c>
       <c r="B146" t="s">
-        <v>260</v>
+        <v>509</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -3705,10 +3705,10 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>417</v>
+        <v>251</v>
       </c>
       <c r="B147" t="s">
-        <v>487</v>
+        <v>252</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -3717,10 +3717,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B148" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -3729,10 +3729,10 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B149" t="s">
-        <v>497</v>
+        <v>256</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -3741,10 +3741,10 @@
     </row>
     <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B150" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -3753,10 +3753,10 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B151" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3765,10 +3765,10 @@
     </row>
     <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B152" t="s">
-        <v>499</v>
+        <v>260</v>
       </c>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3777,10 +3777,10 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>267</v>
+        <v>417</v>
       </c>
       <c r="B153" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3789,10 +3789,10 @@
     </row>
     <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B154" t="s">
-        <v>504</v>
+        <v>262</v>
       </c>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -3801,10 +3801,10 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B155" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -3813,10 +3813,10 @@
     </row>
     <row r="156" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B156" t="s">
-        <v>506</v>
+        <v>471</v>
       </c>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -3825,10 +3825,10 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B157" t="s">
-        <v>272</v>
+        <v>488</v>
       </c>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -3837,10 +3837,10 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B158" t="s">
-        <v>274</v>
+        <v>489</v>
       </c>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -3849,10 +3849,10 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>449</v>
+        <v>267</v>
       </c>
       <c r="B159" t="s">
-        <v>450</v>
+        <v>490</v>
       </c>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -3861,10 +3861,10 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B160" t="s">
-        <v>276</v>
+        <v>494</v>
       </c>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -3873,10 +3873,10 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>447</v>
+        <v>269</v>
       </c>
       <c r="B161" t="s">
-        <v>448</v>
+        <v>495</v>
       </c>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -3885,10 +3885,10 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B162" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -3897,10 +3897,10 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B163" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -3909,10 +3909,10 @@
     </row>
     <row r="164" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B164" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -3921,10 +3921,10 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>282</v>
+        <v>448</v>
       </c>
       <c r="B165" t="s">
-        <v>283</v>
+        <v>449</v>
       </c>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -3933,10 +3933,10 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B166" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -3945,10 +3945,10 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B167" t="s">
-        <v>287</v>
+        <v>484</v>
       </c>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -3957,10 +3957,10 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B168" t="s">
-        <v>507</v>
+        <v>279</v>
       </c>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -3969,10 +3969,10 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B169" t="s">
-        <v>446</v>
+        <v>281</v>
       </c>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -3981,10 +3981,10 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B170" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -3993,10 +3993,10 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B171" t="s">
-        <v>434</v>
+        <v>285</v>
       </c>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -4005,10 +4005,10 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B172" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -4017,10 +4017,10 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B173" t="s">
-        <v>296</v>
+        <v>497</v>
       </c>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -4029,10 +4029,10 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B174" t="s">
-        <v>298</v>
+        <v>445</v>
       </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -4041,10 +4041,10 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B175" t="s">
-        <v>464</v>
+        <v>291</v>
       </c>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -4053,10 +4053,10 @@
     </row>
     <row r="176" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>300</v>
+        <v>418</v>
       </c>
       <c r="B176" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -4065,10 +4065,10 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B177" t="s">
-        <v>481</v>
+        <v>434</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -4077,10 +4077,10 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B178" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -4089,10 +4089,10 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B179" t="s">
-        <v>508</v>
+        <v>296</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -4101,10 +4101,10 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B180" t="s">
-        <v>509</v>
+        <v>298</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -4113,10 +4113,10 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B181" t="s">
-        <v>510</v>
+        <v>463</v>
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -4125,10 +4125,10 @@
     </row>
     <row r="182" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B182" t="s">
-        <v>308</v>
+        <v>485</v>
       </c>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -4137,10 +4137,10 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B183" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -4149,10 +4149,10 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B184" t="s">
-        <v>478</v>
+        <v>303</v>
       </c>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -4161,10 +4161,10 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>311</v>
+        <v>429</v>
       </c>
       <c r="B185" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -4173,10 +4173,10 @@
     </row>
     <row r="186" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B186" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -4185,10 +4185,10 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B187" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -4197,10 +4197,10 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B188" t="s">
-        <v>316</v>
+        <v>499</v>
       </c>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -4209,10 +4209,10 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B189" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -4221,10 +4221,10 @@
     </row>
     <row r="190" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="B190" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -4233,10 +4233,10 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>421</v>
+        <v>309</v>
       </c>
       <c r="B191" t="s">
-        <v>445</v>
+        <v>475</v>
       </c>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -4245,10 +4245,10 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="B192" t="s">
-        <v>321</v>
+        <v>473</v>
       </c>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -4257,10 +4257,10 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B193" t="s">
-        <v>323</v>
+        <v>474</v>
       </c>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -4269,10 +4269,10 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>409</v>
+        <v>312</v>
       </c>
       <c r="B194" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -4281,10 +4281,10 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>420</v>
+        <v>313</v>
       </c>
       <c r="B195" t="s">
-        <v>463</v>
+        <v>314</v>
       </c>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
@@ -4293,10 +4293,10 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B196" t="s">
-        <v>495</v>
+        <v>318</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
@@ -4305,10 +4305,10 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B197" t="s">
-        <v>326</v>
+        <v>502</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
@@ -4317,10 +4317,10 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>327</v>
+        <v>421</v>
       </c>
       <c r="B198" t="s">
-        <v>328</v>
+        <v>520</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
@@ -4329,10 +4329,10 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B199" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
@@ -4341,10 +4341,10 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B200" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
@@ -4353,10 +4353,10 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B201" t="s">
-        <v>334</v>
+        <v>521</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
@@ -4365,10 +4365,10 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B202" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
@@ -4377,10 +4377,10 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B203" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
@@ -4389,10 +4389,10 @@
     </row>
     <row r="204" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>423</v>
+        <v>327</v>
       </c>
       <c r="B204" t="s">
-        <v>443</v>
+        <v>328</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
@@ -4401,10 +4401,10 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B205" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
@@ -4413,10 +4413,10 @@
     </row>
     <row r="206" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>339</v>
+        <v>420</v>
       </c>
       <c r="B206" t="s">
-        <v>340</v>
+        <v>462</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
@@ -4425,10 +4425,10 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B207" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
@@ -4437,10 +4437,10 @@
     </row>
     <row r="208" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B208" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
@@ -4449,10 +4449,10 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>459</v>
+        <v>335</v>
       </c>
       <c r="B209" t="s">
-        <v>486</v>
+        <v>336</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
@@ -4461,10 +4461,10 @@
     </row>
     <row r="210" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>345</v>
+        <v>422</v>
       </c>
       <c r="B210" t="s">
-        <v>346</v>
+        <v>444</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
@@ -4473,10 +4473,10 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>347</v>
+        <v>423</v>
       </c>
       <c r="B211" t="s">
-        <v>348</v>
+        <v>443</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
@@ -4485,10 +4485,10 @@
     </row>
     <row r="212" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="B212" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
@@ -4497,10 +4497,10 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="B213" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
@@ -4509,10 +4509,10 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="B214" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
@@ -4521,10 +4521,10 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="B215" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
@@ -4533,10 +4533,10 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>357</v>
+        <v>458</v>
       </c>
       <c r="B216" t="s">
-        <v>358</v>
+        <v>480</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
@@ -4545,10 +4545,10 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="B217" t="s">
-        <v>513</v>
+        <v>346</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
@@ -4557,10 +4557,10 @@
     </row>
     <row r="218" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="B218" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
@@ -4569,10 +4569,10 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="B219" t="s">
-        <v>514</v>
+        <v>350</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
@@ -4581,10 +4581,10 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="B220" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
@@ -4593,10 +4593,10 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B221" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
@@ -4605,10 +4605,10 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="B222" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
@@ -4617,10 +4617,10 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>442</v>
+        <v>357</v>
       </c>
       <c r="B223" t="s">
-        <v>515</v>
+        <v>358</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
@@ -4629,10 +4629,10 @@
     </row>
     <row r="224" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B224" t="s">
-        <v>370</v>
+        <v>503</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
@@ -4641,10 +4641,10 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="B225" t="s">
-        <v>473</v>
+        <v>361</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
@@ -4653,10 +4653,10 @@
     </row>
     <row r="226" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="B226" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
@@ -4665,10 +4665,10 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="B227" t="s">
-        <v>517</v>
+        <v>364</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
@@ -4677,10 +4677,10 @@
     </row>
     <row r="228" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B228" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
@@ -4689,10 +4689,10 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="B229" t="s">
-        <v>468</v>
+        <v>368</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
@@ -4701,10 +4701,10 @@
     </row>
     <row r="230" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>377</v>
+        <v>442</v>
       </c>
       <c r="B230" t="s">
-        <v>378</v>
+        <v>516</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
@@ -4713,10 +4713,10 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="B231" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
@@ -4725,10 +4725,10 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>425</v>
+        <v>371</v>
       </c>
       <c r="B232" t="s">
-        <v>523</v>
+        <v>468</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
@@ -4737,10 +4737,10 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="B233" t="s">
-        <v>382</v>
+        <v>505</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
@@ -4749,10 +4749,10 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="B234" t="s">
-        <v>384</v>
+        <v>511</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
@@ -4761,10 +4761,10 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="B235" t="s">
-        <v>386</v>
+        <v>506</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
@@ -4773,10 +4773,10 @@
     </row>
     <row r="236" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>441</v>
+        <v>374</v>
       </c>
       <c r="B236" t="s">
-        <v>440</v>
+        <v>375</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
@@ -4785,10 +4785,10 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="B237" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
@@ -4797,10 +4797,10 @@
     </row>
     <row r="238" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="B238" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
@@ -4809,10 +4809,10 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="B239" t="s">
-        <v>472</v>
+        <v>380</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
@@ -4821,10 +4821,10 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>391</v>
+        <v>425</v>
       </c>
       <c r="B240" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
@@ -4833,10 +4833,10 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>392</v>
+        <v>426</v>
       </c>
       <c r="B241" t="s">
-        <v>471</v>
+        <v>432</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
@@ -4845,10 +4845,10 @@
     </row>
     <row r="242" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="B242" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
@@ -4857,10 +4857,10 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="B243" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
@@ -4869,10 +4869,10 @@
     </row>
     <row r="244" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="B244" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
@@ -4881,10 +4881,10 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="B245" t="s">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
@@ -4893,10 +4893,10 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>427</v>
+        <v>387</v>
       </c>
       <c r="B246" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
@@ -4905,10 +4905,10 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="B247" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
@@ -4917,7 +4917,7 @@
     </row>
     <row r="248" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="B248" t="s">
         <v>519</v>
@@ -4929,10 +4929,10 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="B249" t="s">
-        <v>484</v>
+        <v>507</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
@@ -4941,109 +4941,112 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="B250" t="s">
-        <v>406</v>
+        <v>467</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="B251" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="B252" t="s">
-        <v>439</v>
+        <v>396</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B253" t="s">
-        <v>438</v>
+        <v>398</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="B254" t="s">
-        <v>437</v>
+        <v>400</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="B255" t="s">
-        <v>436</v>
+        <v>477</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="B256" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="B257" t="s">
-        <v>520</v>
+        <v>402</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="B258" t="s">
-        <v>521</v>
+        <v>478</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="B259" t="s">
-        <v>433</v>
+        <v>508</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="B260" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="B261" t="s">
-        <v>432</v>
+        <v>406</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="B262" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A1:B262">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/config/RutoValidEng.xlsx
+++ b/config/RutoValidEng.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="526">
   <si>
     <t>Австралия</t>
   </si>
@@ -1356,9 +1356,6 @@
     <t>Taiwan</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Ватикан</t>
   </si>
   <si>
@@ -1591,6 +1588,15 @@
   </si>
   <si>
     <t>S. Sudan</t>
+  </si>
+  <si>
+    <t>France_Afar</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>FRG</t>
   </si>
 </sst>
 </file>
@@ -1936,10 +1942,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:F262"/>
+  <dimension ref="A1:F269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="B200" sqref="B200"/>
+    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
+      <selection activeCell="A269" sqref="A269:B269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2028,7 +2034,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2088,7 +2094,7 @@
         <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2280,7 +2286,7 @@
         <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2292,7 +2298,7 @@
         <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2352,7 +2358,7 @@
         <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -2397,10 +2403,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>445</v>
+      </c>
+      <c r="B38" t="s">
         <v>446</v>
-      </c>
-      <c r="B38" t="s">
-        <v>447</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2412,7 +2418,7 @@
         <v>409</v>
       </c>
       <c r="B39" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2433,7 +2439,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B41" t="s">
         <v>71</v>
@@ -2448,7 +2454,7 @@
         <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2460,7 +2466,7 @@
         <v>73</v>
       </c>
       <c r="B43" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2592,7 +2598,7 @@
         <v>92</v>
       </c>
       <c r="B54" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2676,7 +2682,7 @@
         <v>101</v>
       </c>
       <c r="B61" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2793,10 +2799,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B71" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2844,7 +2850,7 @@
         <v>125</v>
       </c>
       <c r="B75" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2925,10 +2931,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B82" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3177,10 +3183,10 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B103" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3192,7 +3198,7 @@
         <v>178</v>
       </c>
       <c r="B104" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3204,7 +3210,7 @@
         <v>179</v>
       </c>
       <c r="B105" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3252,7 +3258,7 @@
         <v>184</v>
       </c>
       <c r="B109" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -3264,7 +3270,7 @@
         <v>185</v>
       </c>
       <c r="B110" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -3321,10 +3327,10 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B115" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -3552,7 +3558,7 @@
         <v>112</v>
       </c>
       <c r="B134" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -3696,7 +3702,7 @@
         <v>416</v>
       </c>
       <c r="B146" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -3744,7 +3750,7 @@
         <v>257</v>
       </c>
       <c r="B150" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -3756,7 +3762,7 @@
         <v>258</v>
       </c>
       <c r="B151" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3780,7 +3786,7 @@
         <v>417</v>
       </c>
       <c r="B153" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3804,7 +3810,7 @@
         <v>263</v>
       </c>
       <c r="B155" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -3816,7 +3822,7 @@
         <v>264</v>
       </c>
       <c r="B156" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -3828,7 +3834,7 @@
         <v>265</v>
       </c>
       <c r="B157" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -3840,7 +3846,7 @@
         <v>266</v>
       </c>
       <c r="B158" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -3852,7 +3858,7 @@
         <v>267</v>
       </c>
       <c r="B159" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -3864,7 +3870,7 @@
         <v>268</v>
       </c>
       <c r="B160" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -3876,7 +3882,7 @@
         <v>269</v>
       </c>
       <c r="B161" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -3888,7 +3894,7 @@
         <v>270</v>
       </c>
       <c r="B162" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -3921,10 +3927,10 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>447</v>
+      </c>
+      <c r="B165" t="s">
         <v>448</v>
-      </c>
-      <c r="B165" t="s">
-        <v>449</v>
       </c>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -3948,7 +3954,7 @@
         <v>277</v>
       </c>
       <c r="B167" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -4020,7 +4026,7 @@
         <v>288</v>
       </c>
       <c r="B173" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -4032,7 +4038,7 @@
         <v>289</v>
       </c>
       <c r="B174" t="s">
-        <v>445</v>
+        <v>524</v>
       </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -4056,7 +4062,7 @@
         <v>418</v>
       </c>
       <c r="B176" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -4116,7 +4122,7 @@
         <v>299</v>
       </c>
       <c r="B181" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -4128,7 +4134,7 @@
         <v>300</v>
       </c>
       <c r="B182" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -4140,7 +4146,7 @@
         <v>301</v>
       </c>
       <c r="B183" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -4164,7 +4170,7 @@
         <v>429</v>
       </c>
       <c r="B185" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -4176,7 +4182,7 @@
         <v>304</v>
       </c>
       <c r="B186" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -4200,7 +4206,7 @@
         <v>305</v>
       </c>
       <c r="B188" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -4224,7 +4230,7 @@
         <v>306</v>
       </c>
       <c r="B190" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -4236,7 +4242,7 @@
         <v>309</v>
       </c>
       <c r="B191" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -4248,7 +4254,7 @@
         <v>310</v>
       </c>
       <c r="B192" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -4260,7 +4266,7 @@
         <v>311</v>
       </c>
       <c r="B193" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -4272,7 +4278,7 @@
         <v>312</v>
       </c>
       <c r="B194" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -4308,7 +4314,7 @@
         <v>319</v>
       </c>
       <c r="B197" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
@@ -4320,7 +4326,7 @@
         <v>421</v>
       </c>
       <c r="B198" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
@@ -4356,7 +4362,7 @@
         <v>324</v>
       </c>
       <c r="B201" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
@@ -4416,7 +4422,7 @@
         <v>420</v>
       </c>
       <c r="B206" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
@@ -4533,10 +4539,10 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B216" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
@@ -4632,7 +4638,7 @@
         <v>359</v>
       </c>
       <c r="B224" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
@@ -4656,7 +4662,7 @@
         <v>362</v>
       </c>
       <c r="B226" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
@@ -4704,7 +4710,7 @@
         <v>442</v>
       </c>
       <c r="B230" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
@@ -4728,7 +4734,7 @@
         <v>371</v>
       </c>
       <c r="B232" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
@@ -4740,7 +4746,7 @@
         <v>372</v>
       </c>
       <c r="B233" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
@@ -4752,7 +4758,7 @@
         <v>424</v>
       </c>
       <c r="B234" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
@@ -4764,7 +4770,7 @@
         <v>373</v>
       </c>
       <c r="B235" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
@@ -4788,7 +4794,7 @@
         <v>376</v>
       </c>
       <c r="B237" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
@@ -4824,7 +4830,7 @@
         <v>425</v>
       </c>
       <c r="B240" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
@@ -4896,7 +4902,7 @@
         <v>387</v>
       </c>
       <c r="B246" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
@@ -4920,7 +4926,7 @@
         <v>390</v>
       </c>
       <c r="B248" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
@@ -4932,7 +4938,7 @@
         <v>391</v>
       </c>
       <c r="B249" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
@@ -4944,7 +4950,7 @@
         <v>392</v>
       </c>
       <c r="B250" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -4984,7 +4990,7 @@
         <v>427</v>
       </c>
       <c r="B255" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5008,7 +5014,7 @@
         <v>430</v>
       </c>
       <c r="B258" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -5016,7 +5022,7 @@
         <v>403</v>
       </c>
       <c r="B259" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -5024,7 +5030,7 @@
         <v>404</v>
       </c>
       <c r="B260" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -5041,6 +5047,62 @@
       </c>
       <c r="B262" t="s">
         <v>408</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>424</v>
+      </c>
+      <c r="B263" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>413</v>
+      </c>
+      <c r="B264" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>428</v>
+      </c>
+      <c r="B265" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>411</v>
+      </c>
+      <c r="B266" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>412</v>
+      </c>
+      <c r="B267" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>411</v>
+      </c>
+      <c r="B268" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>426</v>
+      </c>
+      <c r="B269" t="s">
+        <v>432</v>
       </c>
     </row>
   </sheetData>

--- a/config/RutoValidEng.xlsx
+++ b/config/RutoValidEng.xlsx
@@ -1945,7 +1945,7 @@
   <dimension ref="A1:F269"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
-      <selection activeCell="A269" sqref="A269:B269"/>
+      <selection activeCell="B269" sqref="B269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/config/RutoValidEng.xlsx
+++ b/config/RutoValidEng.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="528">
   <si>
     <t>Австралия</t>
   </si>
@@ -1597,6 +1597,12 @@
   </si>
   <si>
     <t>FRG</t>
+  </si>
+  <si>
+    <t>Эсватини (Свазиленд)</t>
+  </si>
+  <si>
+    <t>eSwatini</t>
   </si>
 </sst>
 </file>
@@ -1942,10 +1948,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:F269"/>
+  <dimension ref="A1:F270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
-      <selection activeCell="B269" sqref="B269"/>
+    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
+      <selection activeCell="B270" sqref="B270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5105,6 +5111,14 @@
         <v>432</v>
       </c>
     </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>526</v>
+      </c>
+      <c r="B270" t="s">
+        <v>527</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A1:B262">
     <sortCondition ref="A1"/>

--- a/config/RutoValidEng.xlsx
+++ b/config/RutoValidEng.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="529">
   <si>
     <t>Австралия</t>
   </si>
@@ -1603,6 +1603,9 @@
   </si>
   <si>
     <t>eSwatini</t>
+  </si>
+  <si>
+    <t>Германия - ФРГ</t>
   </si>
 </sst>
 </file>
@@ -1951,7 +1954,7 @@
   <dimension ref="A1:F270"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
-      <selection activeCell="B270" sqref="B270"/>
+      <selection activeCell="A268" sqref="A268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5097,7 +5100,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>411</v>
+        <v>528</v>
       </c>
       <c r="B268" t="s">
         <v>525</v>

--- a/config/RutoValidEng.xlsx
+++ b/config/RutoValidEng.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="533">
   <si>
     <t>Австралия</t>
   </si>
@@ -1606,6 +1606,18 @@
   </si>
   <si>
     <t>Германия - ФРГ</t>
+  </si>
+  <si>
+    <t>Южный Йемен</t>
+  </si>
+  <si>
+    <t>N.Yemen</t>
+  </si>
+  <si>
+    <t>Южная Аравия</t>
+  </si>
+  <si>
+    <t>N.Arabia</t>
   </si>
 </sst>
 </file>
@@ -1951,10 +1963,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:F270"/>
+  <dimension ref="A1:F272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
-      <selection activeCell="A268" sqref="A268"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="A271" sqref="A271:B272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5122,6 +5134,22 @@
         <v>527</v>
       </c>
     </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>529</v>
+      </c>
+      <c r="B271" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>531</v>
+      </c>
+      <c r="B272" t="s">
+        <v>532</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A1:B262">
     <sortCondition ref="A1"/>

--- a/config/RutoValidEng.xlsx
+++ b/config/RutoValidEng.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="537">
   <si>
     <t>Австралия</t>
   </si>
@@ -1618,18 +1618,38 @@
   </si>
   <si>
     <t>N.Arabia</t>
+  </si>
+  <si>
+    <t>Центральная Африка (BEAC)</t>
+  </si>
+  <si>
+    <t>Centr_Afrika</t>
+  </si>
+  <si>
+    <t>Сомалиленд</t>
+  </si>
+  <si>
+    <t>Somaliland</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1673,15 +1693,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1963,10 +1984,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:F272"/>
+  <dimension ref="A1:F274"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="A271" sqref="A271:B272"/>
+      <selection activeCell="A274" sqref="A274:B274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5150,6 +5171,22 @@
         <v>532</v>
       </c>
     </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="B273" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>535</v>
+      </c>
+      <c r="B274" t="s">
+        <v>536</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A1:B262">
     <sortCondition ref="A1"/>

--- a/config/RutoValidEng.xlsx
+++ b/config/RutoValidEng.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="539">
   <si>
     <t>Австралия</t>
   </si>
@@ -1630,6 +1630,12 @@
   </si>
   <si>
     <t>Somaliland</t>
+  </si>
+  <si>
+    <t>Британская Восточная Африка</t>
+  </si>
+  <si>
+    <t>Britan_Afrika</t>
   </si>
 </sst>
 </file>
@@ -1984,10 +1990,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:F274"/>
+  <dimension ref="A1:F275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="A274" sqref="A274:B274"/>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="B275" sqref="B275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5187,6 +5193,14 @@
         <v>536</v>
       </c>
     </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>537</v>
+      </c>
+      <c r="B275" t="s">
+        <v>538</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A1:B262">
     <sortCondition ref="A1"/>

--- a/config/RutoValidEng.xlsx
+++ b/config/RutoValidEng.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="541">
   <si>
     <t>Австралия</t>
   </si>
@@ -1636,6 +1636,12 @@
   </si>
   <si>
     <t>Britan_Afrika</t>
+  </si>
+  <si>
+    <t>Приднестровье</t>
+  </si>
+  <si>
+    <t>Transnistria</t>
   </si>
 </sst>
 </file>
@@ -1990,10 +1996,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:F275"/>
+  <dimension ref="A1:F276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="B275" sqref="B275"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="B276" sqref="B276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5201,6 +5207,14 @@
         <v>538</v>
       </c>
     </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>539</v>
+      </c>
+      <c r="B276" t="s">
+        <v>540</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A1:B262">
     <sortCondition ref="A1"/>

--- a/config/RutoValidEng.xlsx
+++ b/config/RutoValidEng.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1365,9 +1365,6 @@
     <t>Палестина</t>
   </si>
   <si>
-    <t>Palestinian</t>
-  </si>
-  <si>
     <t>Micronesia</t>
   </si>
   <si>
@@ -1642,12 +1639,15 @@
   </si>
   <si>
     <t>Transnistria</t>
+  </si>
+  <si>
+    <t>Palestine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1775,7 +1775,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1810,7 +1810,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1987,7 +1987,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1998,8 +1998,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:F276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="B276" sqref="B276"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="B165" sqref="B165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2088,7 +2088,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2148,7 +2148,7 @@
         <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2340,7 +2340,7 @@
         <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2352,7 +2352,7 @@
         <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2412,7 +2412,7 @@
         <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -2472,7 +2472,7 @@
         <v>409</v>
       </c>
       <c r="B39" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B41" t="s">
         <v>71</v>
@@ -2508,7 +2508,7 @@
         <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2520,7 +2520,7 @@
         <v>73</v>
       </c>
       <c r="B43" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2652,7 +2652,7 @@
         <v>92</v>
       </c>
       <c r="B54" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2736,7 +2736,7 @@
         <v>101</v>
       </c>
       <c r="B61" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2853,10 +2853,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B71" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2904,7 +2904,7 @@
         <v>125</v>
       </c>
       <c r="B75" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2985,10 +2985,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B82" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3237,10 +3237,10 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B103" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3252,7 +3252,7 @@
         <v>178</v>
       </c>
       <c r="B104" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3264,7 +3264,7 @@
         <v>179</v>
       </c>
       <c r="B105" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3312,7 +3312,7 @@
         <v>184</v>
       </c>
       <c r="B109" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -3324,7 +3324,7 @@
         <v>185</v>
       </c>
       <c r="B110" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -3381,10 +3381,10 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B115" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -3612,7 +3612,7 @@
         <v>112</v>
       </c>
       <c r="B134" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -3756,7 +3756,7 @@
         <v>416</v>
       </c>
       <c r="B146" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -3804,7 +3804,7 @@
         <v>257</v>
       </c>
       <c r="B150" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -3816,7 +3816,7 @@
         <v>258</v>
       </c>
       <c r="B151" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3840,7 +3840,7 @@
         <v>417</v>
       </c>
       <c r="B153" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3864,7 +3864,7 @@
         <v>263</v>
       </c>
       <c r="B155" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -3876,7 +3876,7 @@
         <v>264</v>
       </c>
       <c r="B156" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -3888,7 +3888,7 @@
         <v>265</v>
       </c>
       <c r="B157" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -3900,7 +3900,7 @@
         <v>266</v>
       </c>
       <c r="B158" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -3912,7 +3912,7 @@
         <v>267</v>
       </c>
       <c r="B159" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -3924,7 +3924,7 @@
         <v>268</v>
       </c>
       <c r="B160" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -3936,7 +3936,7 @@
         <v>269</v>
       </c>
       <c r="B161" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -3948,7 +3948,7 @@
         <v>270</v>
       </c>
       <c r="B162" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -3984,7 +3984,7 @@
         <v>447</v>
       </c>
       <c r="B165" t="s">
-        <v>448</v>
+        <v>540</v>
       </c>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -4008,7 +4008,7 @@
         <v>277</v>
       </c>
       <c r="B167" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -4080,7 +4080,7 @@
         <v>288</v>
       </c>
       <c r="B173" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -4092,7 +4092,7 @@
         <v>289</v>
       </c>
       <c r="B174" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -4116,7 +4116,7 @@
         <v>418</v>
       </c>
       <c r="B176" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -4176,7 +4176,7 @@
         <v>299</v>
       </c>
       <c r="B181" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -4188,7 +4188,7 @@
         <v>300</v>
       </c>
       <c r="B182" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -4200,7 +4200,7 @@
         <v>301</v>
       </c>
       <c r="B183" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -4224,7 +4224,7 @@
         <v>429</v>
       </c>
       <c r="B185" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -4236,7 +4236,7 @@
         <v>304</v>
       </c>
       <c r="B186" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -4260,7 +4260,7 @@
         <v>305</v>
       </c>
       <c r="B188" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -4284,7 +4284,7 @@
         <v>306</v>
       </c>
       <c r="B190" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -4296,7 +4296,7 @@
         <v>309</v>
       </c>
       <c r="B191" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -4308,7 +4308,7 @@
         <v>310</v>
       </c>
       <c r="B192" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -4320,7 +4320,7 @@
         <v>311</v>
       </c>
       <c r="B193" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -4332,7 +4332,7 @@
         <v>312</v>
       </c>
       <c r="B194" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -4368,7 +4368,7 @@
         <v>319</v>
       </c>
       <c r="B197" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
@@ -4380,7 +4380,7 @@
         <v>421</v>
       </c>
       <c r="B198" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
@@ -4416,7 +4416,7 @@
         <v>324</v>
       </c>
       <c r="B201" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
@@ -4476,7 +4476,7 @@
         <v>420</v>
       </c>
       <c r="B206" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
@@ -4593,10 +4593,10 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B216" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
@@ -4692,7 +4692,7 @@
         <v>359</v>
       </c>
       <c r="B224" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
@@ -4716,7 +4716,7 @@
         <v>362</v>
       </c>
       <c r="B226" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
@@ -4764,7 +4764,7 @@
         <v>442</v>
       </c>
       <c r="B230" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
@@ -4788,7 +4788,7 @@
         <v>371</v>
       </c>
       <c r="B232" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
@@ -4800,7 +4800,7 @@
         <v>372</v>
       </c>
       <c r="B233" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
@@ -4812,7 +4812,7 @@
         <v>424</v>
       </c>
       <c r="B234" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
@@ -4824,7 +4824,7 @@
         <v>373</v>
       </c>
       <c r="B235" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
@@ -4848,7 +4848,7 @@
         <v>376</v>
       </c>
       <c r="B237" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
@@ -4884,7 +4884,7 @@
         <v>425</v>
       </c>
       <c r="B240" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
@@ -4956,7 +4956,7 @@
         <v>387</v>
       </c>
       <c r="B246" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
@@ -4980,7 +4980,7 @@
         <v>390</v>
       </c>
       <c r="B248" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
@@ -4992,7 +4992,7 @@
         <v>391</v>
       </c>
       <c r="B249" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
@@ -5004,7 +5004,7 @@
         <v>392</v>
       </c>
       <c r="B250" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -5044,7 +5044,7 @@
         <v>427</v>
       </c>
       <c r="B255" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5068,7 +5068,7 @@
         <v>430</v>
       </c>
       <c r="B258" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -5076,7 +5076,7 @@
         <v>403</v>
       </c>
       <c r="B259" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -5084,7 +5084,7 @@
         <v>404</v>
       </c>
       <c r="B260" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -5108,7 +5108,7 @@
         <v>424</v>
       </c>
       <c r="B263" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -5145,10 +5145,10 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B268" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -5161,58 +5161,58 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
+        <v>525</v>
+      </c>
+      <c r="B270" t="s">
         <v>526</v>
-      </c>
-      <c r="B270" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
+        <v>528</v>
+      </c>
+      <c r="B271" t="s">
         <v>529</v>
-      </c>
-      <c r="B271" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
+        <v>530</v>
+      </c>
+      <c r="B272" t="s">
         <v>531</v>
-      </c>
-      <c r="B272" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="B273" t="s">
         <v>533</v>
-      </c>
-      <c r="B273" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
+        <v>534</v>
+      </c>
+      <c r="B274" t="s">
         <v>535</v>
-      </c>
-      <c r="B274" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
+        <v>536</v>
+      </c>
+      <c r="B275" t="s">
         <v>537</v>
-      </c>
-      <c r="B275" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
+        <v>538</v>
+      </c>
+      <c r="B276" t="s">
         <v>539</v>
-      </c>
-      <c r="B276" t="s">
-        <v>540</v>
       </c>
     </row>
   </sheetData>

--- a/config/RutoValidEng.xlsx
+++ b/config/RutoValidEng.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="543">
   <si>
     <t>Австралия</t>
   </si>
@@ -1642,6 +1642,12 @@
   </si>
   <si>
     <t>Palestine</t>
+  </si>
+  <si>
+    <t>Британская Палестина</t>
+  </si>
+  <si>
+    <t>Britan_Palestine</t>
   </si>
 </sst>
 </file>
@@ -1996,10 +2002,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:F276"/>
+  <dimension ref="A1:F277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="B165" sqref="B165"/>
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="B277" sqref="B277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5215,6 +5221,14 @@
         <v>539</v>
       </c>
     </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>541</v>
+      </c>
+      <c r="B277" t="s">
+        <v>542</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A1:B262">
     <sortCondition ref="A1"/>

--- a/config/RutoValidEng.xlsx
+++ b/config/RutoValidEng.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AC9B01-F2C2-4F6A-B422-00F66000E871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="543">
   <si>
     <t>Австралия</t>
   </si>
@@ -1653,7 +1654,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1993,19 +1994,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:F277"/>
+  <dimension ref="A1:F278"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="B277" sqref="B277"/>
+      <selection activeCell="A278" sqref="A278:B278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5229,8 +5230,16 @@
         <v>542</v>
       </c>
     </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>441</v>
+      </c>
+      <c r="B278" t="s">
+        <v>440</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:B262">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B262">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/RutoValidEng.xlsx
+++ b/config/RutoValidEng.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AC9B01-F2C2-4F6A-B422-00F66000E871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF5D774-A600-45A3-A1F1-4828228C4EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="545">
   <si>
     <t>Австралия</t>
   </si>
@@ -1649,13 +1649,19 @@
   </si>
   <si>
     <t>Britan_Palestine</t>
+  </si>
+  <si>
+    <t>Сан-Томе и Принсипи</t>
+  </si>
+  <si>
+    <t>San_Tome_and_Principy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1685,6 +1691,13 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1712,7 +1725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1722,6 +1735,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2003,10 +2017,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:F278"/>
+  <dimension ref="A1:F279"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="A278" sqref="A278:B278"/>
+      <selection activeCell="B279" sqref="B279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5238,6 +5252,14 @@
         <v>440</v>
       </c>
     </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>543</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B262">
     <sortCondition ref="A1"/>

--- a/config/RutoValidEng.xlsx
+++ b/config/RutoValidEng.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF5D774-A600-45A3-A1F1-4828228C4EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="545">
   <si>
     <t>Австралия</t>
   </si>
@@ -1660,7 +1659,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2008,19 +2007,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:F279"/>
+  <dimension ref="A1:F278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="B279" sqref="B279"/>
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="B278" sqref="A1:B278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2406,10 +2405,10 @@
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>536</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>537</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2418,10 +2417,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>541</v>
       </c>
       <c r="B33" t="s">
-        <v>2</v>
+        <v>542</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2430,10 +2429,10 @@
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>463</v>
+        <v>49</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -2442,10 +2441,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -2454,10 +2453,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>463</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -2466,10 +2465,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -2478,10 +2477,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>445</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
-        <v>446</v>
+        <v>66</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2490,10 +2489,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>409</v>
+        <v>67</v>
       </c>
       <c r="B39" t="s">
-        <v>480</v>
+        <v>68</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2502,10 +2501,10 @@
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>445</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>446</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -2514,10 +2513,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>457</v>
+        <v>409</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>480</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2526,10 +2525,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B42" t="s">
-        <v>490</v>
+        <v>70</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2538,10 +2537,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>457</v>
       </c>
       <c r="B43" t="s">
-        <v>491</v>
+        <v>71</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2550,10 +2549,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>410</v>
+        <v>72</v>
       </c>
       <c r="B44" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2562,10 +2561,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>491</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2574,10 +2573,10 @@
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>410</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>439</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2586,10 +2585,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2598,10 +2597,10 @@
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2610,10 +2609,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2622,10 +2621,10 @@
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2634,10 +2633,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2646,10 +2645,10 @@
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2658,10 +2657,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B53" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2670,10 +2669,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B54" t="s">
-        <v>467</v>
+        <v>89</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2682,10 +2681,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B55" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2694,10 +2693,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>411</v>
+        <v>92</v>
       </c>
       <c r="B56" t="s">
-        <v>438</v>
+        <v>467</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2706,10 +2705,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>412</v>
+        <v>93</v>
       </c>
       <c r="B57" t="s">
-        <v>437</v>
+        <v>94</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2718,10 +2717,10 @@
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>411</v>
       </c>
       <c r="B58" t="s">
-        <v>96</v>
+        <v>438</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2730,10 +2729,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>97</v>
+        <v>411</v>
       </c>
       <c r="B59" t="s">
-        <v>98</v>
+        <v>438</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2742,10 +2741,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>99</v>
+        <v>412</v>
       </c>
       <c r="B60" t="s">
-        <v>100</v>
+        <v>437</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2754,10 +2753,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>101</v>
+        <v>412</v>
       </c>
       <c r="B61" t="s">
-        <v>468</v>
+        <v>437</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2766,10 +2765,10 @@
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>102</v>
+        <v>527</v>
       </c>
       <c r="B62" t="s">
-        <v>103</v>
+        <v>524</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2778,10 +2777,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B63" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2790,10 +2789,10 @@
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B64" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2802,10 +2801,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B65" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2814,10 +2813,10 @@
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B66" t="s">
-        <v>111</v>
+        <v>468</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2826,10 +2825,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B67" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2838,10 +2837,10 @@
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B68" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2850,10 +2849,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B69" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2862,10 +2861,10 @@
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B70" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2874,10 +2873,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>458</v>
+        <v>110</v>
       </c>
       <c r="B71" t="s">
-        <v>513</v>
+        <v>111</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2886,10 +2885,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B72" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2898,10 +2897,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B73" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2910,10 +2909,10 @@
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>413</v>
+        <v>117</v>
       </c>
       <c r="B74" t="s">
-        <v>436</v>
+        <v>118</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2922,10 +2921,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B75" t="s">
-        <v>511</v>
+        <v>120</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2934,10 +2933,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>126</v>
+        <v>458</v>
       </c>
       <c r="B76" t="s">
-        <v>127</v>
+        <v>513</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2946,10 +2945,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B77" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2958,10 +2957,10 @@
     </row>
     <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B78" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2970,10 +2969,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>132</v>
+        <v>413</v>
       </c>
       <c r="B79" t="s">
-        <v>133</v>
+        <v>436</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2982,10 +2981,10 @@
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>134</v>
+        <v>413</v>
       </c>
       <c r="B80" t="s">
-        <v>135</v>
+        <v>436</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2994,10 +2993,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B81" t="s">
-        <v>137</v>
+        <v>511</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3006,10 +3005,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>454</v>
+        <v>126</v>
       </c>
       <c r="B82" t="s">
-        <v>453</v>
+        <v>127</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3018,10 +3017,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B83" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3030,10 +3029,10 @@
     </row>
     <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B84" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3042,10 +3041,10 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B85" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3054,10 +3053,10 @@
     </row>
     <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B86" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3066,10 +3065,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B87" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3078,10 +3077,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>148</v>
+        <v>454</v>
       </c>
       <c r="B88" t="s">
-        <v>149</v>
+        <v>453</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3090,10 +3089,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B89" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3102,10 +3101,10 @@
     </row>
     <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B90" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3114,10 +3113,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B91" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3126,10 +3125,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B92" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3138,10 +3137,10 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B93" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3150,10 +3149,10 @@
     </row>
     <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B94" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3162,10 +3161,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B95" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3174,10 +3173,10 @@
     </row>
     <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B96" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3186,10 +3185,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B97" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3198,10 +3197,10 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B98" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3210,10 +3209,10 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B99" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -3222,10 +3221,10 @@
     </row>
     <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B100" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3234,10 +3233,10 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="B101" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -3246,10 +3245,10 @@
     </row>
     <row r="102" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B102" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3258,10 +3257,10 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>459</v>
+        <v>166</v>
       </c>
       <c r="B103" t="s">
-        <v>512</v>
+        <v>167</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3270,10 +3269,10 @@
     </row>
     <row r="104" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B104" t="s">
-        <v>464</v>
+        <v>169</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3282,10 +3281,10 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B105" t="s">
-        <v>515</v>
+        <v>171</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3294,10 +3293,10 @@
     </row>
     <row r="106" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>414</v>
+        <v>172</v>
       </c>
       <c r="B106" t="s">
-        <v>435</v>
+        <v>173</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3306,10 +3305,10 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B107" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -3318,10 +3317,10 @@
     </row>
     <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B108" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -3330,10 +3329,10 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>184</v>
+        <v>459</v>
       </c>
       <c r="B109" t="s">
-        <v>452</v>
+        <v>512</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -3342,10 +3341,10 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B110" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -3354,10 +3353,10 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B111" t="s">
-        <v>187</v>
+        <v>515</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -3366,10 +3365,10 @@
     </row>
     <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>188</v>
+        <v>414</v>
       </c>
       <c r="B112" t="s">
-        <v>189</v>
+        <v>435</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -3378,10 +3377,10 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B113" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -3390,10 +3389,10 @@
     </row>
     <row r="114" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B114" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3402,10 +3401,10 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>450</v>
+        <v>184</v>
       </c>
       <c r="B115" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -3414,10 +3413,10 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B116" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -3426,10 +3425,10 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B117" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -3438,10 +3437,10 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B118" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -3450,10 +3449,10 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B119" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -3462,10 +3461,10 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B120" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -3474,10 +3473,10 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>204</v>
+        <v>450</v>
       </c>
       <c r="B121" t="s">
-        <v>205</v>
+        <v>449</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -3486,10 +3485,10 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B122" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -3498,10 +3497,10 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="B123" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -3510,10 +3509,10 @@
     </row>
     <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B124" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -3522,10 +3521,10 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B125" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -3534,10 +3533,10 @@
     </row>
     <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="B126" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -3546,10 +3545,10 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B127" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -3558,10 +3557,10 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="B128" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -3570,10 +3569,10 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B129" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3582,10 +3581,10 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B130" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3594,10 +3593,10 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="B131" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -3606,10 +3605,10 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="B132" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3618,10 +3617,10 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="B133" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3630,10 +3629,10 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>112</v>
+        <v>218</v>
       </c>
       <c r="B134" t="s">
-        <v>448</v>
+        <v>219</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -3642,10 +3641,10 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B135" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -3654,10 +3653,10 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>415</v>
+        <v>222</v>
       </c>
       <c r="B136" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -3666,10 +3665,10 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B137" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -3678,10 +3677,10 @@
     </row>
     <row r="138" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B138" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -3690,10 +3689,10 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B139" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -3702,10 +3701,10 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>239</v>
+        <v>112</v>
       </c>
       <c r="B140" t="s">
-        <v>240</v>
+        <v>448</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3714,10 +3713,10 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B141" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -3726,10 +3725,10 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>243</v>
+        <v>415</v>
       </c>
       <c r="B142" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3738,10 +3737,10 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B143" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -3750,10 +3749,10 @@
     </row>
     <row r="144" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="B144" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3762,10 +3761,10 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B145" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -3774,10 +3773,10 @@
     </row>
     <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>416</v>
+        <v>239</v>
       </c>
       <c r="B146" t="s">
-        <v>507</v>
+        <v>240</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -3786,10 +3785,10 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B147" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -3798,10 +3797,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B148" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -3810,10 +3809,10 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B149" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -3822,10 +3821,10 @@
     </row>
     <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B150" t="s">
-        <v>481</v>
+        <v>248</v>
       </c>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -3834,10 +3833,10 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B151" t="s">
-        <v>484</v>
+        <v>250</v>
       </c>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3846,10 +3845,10 @@
     </row>
     <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>259</v>
+        <v>416</v>
       </c>
       <c r="B152" t="s">
-        <v>260</v>
+        <v>507</v>
       </c>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3858,10 +3857,10 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>417</v>
+        <v>251</v>
       </c>
       <c r="B153" t="s">
-        <v>479</v>
+        <v>252</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3870,10 +3869,10 @@
     </row>
     <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B154" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -3882,10 +3881,10 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B155" t="s">
-        <v>485</v>
+        <v>256</v>
       </c>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -3894,10 +3893,10 @@
     </row>
     <row r="156" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B156" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -3906,10 +3905,10 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B157" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -3918,10 +3917,10 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B158" t="s">
-        <v>487</v>
+        <v>260</v>
       </c>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -3930,10 +3929,10 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>267</v>
+        <v>417</v>
       </c>
       <c r="B159" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -3942,10 +3941,10 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B160" t="s">
-        <v>492</v>
+        <v>262</v>
       </c>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -3954,10 +3953,10 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B161" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -3966,10 +3965,10 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B162" t="s">
-        <v>494</v>
+        <v>469</v>
       </c>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -3978,10 +3977,10 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B163" t="s">
-        <v>272</v>
+        <v>486</v>
       </c>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -3990,10 +3989,10 @@
     </row>
     <row r="164" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B164" t="s">
-        <v>274</v>
+        <v>487</v>
       </c>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -4002,10 +4001,10 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>447</v>
+        <v>267</v>
       </c>
       <c r="B165" t="s">
-        <v>540</v>
+        <v>488</v>
       </c>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -4014,10 +4013,10 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B166" t="s">
-        <v>276</v>
+        <v>492</v>
       </c>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -4026,10 +4025,10 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B167" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -4038,10 +4037,10 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B168" t="s">
-        <v>279</v>
+        <v>494</v>
       </c>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -4050,10 +4049,10 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B169" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -4062,10 +4061,10 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B170" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -4074,10 +4073,10 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>284</v>
+        <v>447</v>
       </c>
       <c r="B171" t="s">
-        <v>285</v>
+        <v>540</v>
       </c>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -4086,10 +4085,10 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="B172" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -4098,10 +4097,10 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B173" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -4110,10 +4109,10 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B174" t="s">
-        <v>523</v>
+        <v>279</v>
       </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -4122,10 +4121,10 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B175" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -4134,10 +4133,10 @@
     </row>
     <row r="176" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>418</v>
+        <v>282</v>
       </c>
       <c r="B176" t="s">
-        <v>508</v>
+        <v>283</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -4146,10 +4145,10 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B177" t="s">
-        <v>434</v>
+        <v>285</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -4158,10 +4157,10 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B178" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -4170,10 +4169,10 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>295</v>
+        <v>538</v>
       </c>
       <c r="B179" t="s">
-        <v>296</v>
+        <v>539</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -4182,10 +4181,10 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B180" t="s">
-        <v>298</v>
+        <v>495</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -4194,10 +4193,10 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B181" t="s">
-        <v>461</v>
+        <v>523</v>
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -4206,10 +4205,10 @@
     </row>
     <row r="182" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B182" t="s">
-        <v>483</v>
+        <v>291</v>
       </c>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -4218,10 +4217,10 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>301</v>
+        <v>418</v>
       </c>
       <c r="B183" t="s">
-        <v>474</v>
+        <v>508</v>
       </c>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -4230,10 +4229,10 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B184" t="s">
-        <v>303</v>
+        <v>434</v>
       </c>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -4242,10 +4241,10 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>429</v>
+        <v>293</v>
       </c>
       <c r="B185" t="s">
-        <v>470</v>
+        <v>294</v>
       </c>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -4254,10 +4253,10 @@
     </row>
     <row r="186" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B186" t="s">
-        <v>496</v>
+        <v>296</v>
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -4266,10 +4265,10 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="B187" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -4278,10 +4277,10 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B188" t="s">
-        <v>497</v>
+        <v>461</v>
       </c>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -4290,10 +4289,10 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>307</v>
-      </c>
-      <c r="B189" t="s">
-        <v>308</v>
+        <v>543</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>544</v>
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -4302,10 +4301,10 @@
     </row>
     <row r="190" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B190" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -4314,10 +4313,10 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B191" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -4326,10 +4325,10 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B192" t="s">
-        <v>471</v>
+        <v>303</v>
       </c>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -4338,10 +4337,10 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>311</v>
+        <v>429</v>
       </c>
       <c r="B193" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -4350,10 +4349,10 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B194" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -4362,10 +4361,10 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B195" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
@@ -4374,10 +4373,10 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="B196" t="s">
-        <v>318</v>
+        <v>497</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
@@ -4386,10 +4385,10 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="B197" t="s">
-        <v>500</v>
+        <v>308</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
@@ -4398,10 +4397,10 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>421</v>
+        <v>306</v>
       </c>
       <c r="B198" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
@@ -4410,10 +4409,10 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B199" t="s">
-        <v>321</v>
+        <v>473</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
@@ -4422,10 +4421,10 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="B200" t="s">
-        <v>323</v>
+        <v>471</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
@@ -4434,10 +4433,10 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B201" t="s">
-        <v>519</v>
+        <v>472</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
@@ -4446,10 +4445,10 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="B202" t="s">
-        <v>326</v>
+        <v>499</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
@@ -4458,10 +4457,10 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>419</v>
+        <v>313</v>
       </c>
       <c r="B203" t="s">
-        <v>433</v>
+        <v>314</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
@@ -4470,10 +4469,10 @@
     </row>
     <row r="204" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B204" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
@@ -4482,10 +4481,10 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B205" t="s">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
@@ -4494,10 +4493,10 @@
     </row>
     <row r="206" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B206" t="s">
-        <v>460</v>
+        <v>518</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
@@ -4506,10 +4505,10 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B207" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
@@ -4518,10 +4517,10 @@
     </row>
     <row r="208" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="B208" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
@@ -4530,10 +4529,10 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="B209" t="s">
-        <v>336</v>
+        <v>519</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
@@ -4542,10 +4541,10 @@
     </row>
     <row r="210" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>422</v>
+        <v>325</v>
       </c>
       <c r="B210" t="s">
-        <v>444</v>
+        <v>326</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
@@ -4554,10 +4553,10 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>423</v>
+        <v>534</v>
       </c>
       <c r="B211" t="s">
-        <v>443</v>
+        <v>535</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
@@ -4566,10 +4565,10 @@
     </row>
     <row r="212" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>337</v>
+        <v>419</v>
       </c>
       <c r="B212" t="s">
-        <v>338</v>
+        <v>433</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
@@ -4578,10 +4577,10 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B213" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
@@ -4590,10 +4589,10 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B214" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
@@ -4602,10 +4601,10 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>343</v>
+        <v>420</v>
       </c>
       <c r="B215" t="s">
-        <v>344</v>
+        <v>460</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
@@ -4614,10 +4613,10 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>456</v>
+        <v>331</v>
       </c>
       <c r="B216" t="s">
-        <v>478</v>
+        <v>332</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
@@ -4626,10 +4625,10 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="B217" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
@@ -4638,10 +4637,10 @@
     </row>
     <row r="218" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="B218" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
@@ -4650,10 +4649,10 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>349</v>
+        <v>422</v>
       </c>
       <c r="B219" t="s">
-        <v>350</v>
+        <v>444</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
@@ -4662,10 +4661,10 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>351</v>
+        <v>423</v>
       </c>
       <c r="B220" t="s">
-        <v>352</v>
+        <v>443</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
@@ -4674,10 +4673,10 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="B221" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
@@ -4686,10 +4685,10 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="B222" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
@@ -4698,10 +4697,10 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="B223" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
@@ -4710,10 +4709,10 @@
     </row>
     <row r="224" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="B224" t="s">
-        <v>501</v>
+        <v>344</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
@@ -4722,10 +4721,10 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>360</v>
+        <v>456</v>
       </c>
       <c r="B225" t="s">
-        <v>361</v>
+        <v>478</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
@@ -4734,10 +4733,10 @@
     </row>
     <row r="226" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="B226" t="s">
-        <v>502</v>
+        <v>346</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
@@ -4746,10 +4745,10 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="B227" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
@@ -4758,10 +4757,10 @@
     </row>
     <row r="228" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="B228" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
@@ -4770,10 +4769,10 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="B229" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
@@ -4782,10 +4781,10 @@
     </row>
     <row r="230" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>442</v>
+        <v>353</v>
       </c>
       <c r="B230" t="s">
-        <v>514</v>
+        <v>354</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
@@ -4794,10 +4793,10 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="B231" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
@@ -4806,10 +4805,10 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="B232" t="s">
-        <v>466</v>
+        <v>358</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
@@ -4818,10 +4817,10 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="B233" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
@@ -4830,10 +4829,10 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>424</v>
+        <v>360</v>
       </c>
       <c r="B234" t="s">
-        <v>509</v>
+        <v>361</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
@@ -4842,10 +4841,10 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="B235" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
@@ -4854,10 +4853,10 @@
     </row>
     <row r="236" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="B236" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
@@ -4866,10 +4865,10 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="B237" t="s">
-        <v>516</v>
+        <v>366</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
@@ -4878,10 +4877,10 @@
     </row>
     <row r="238" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="B238" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
@@ -4890,10 +4889,10 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>379</v>
+        <v>442</v>
       </c>
       <c r="B239" t="s">
-        <v>380</v>
+        <v>514</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
@@ -4902,10 +4901,10 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>425</v>
+        <v>369</v>
       </c>
       <c r="B240" t="s">
-        <v>510</v>
+        <v>370</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
@@ -4914,10 +4913,10 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>426</v>
+        <v>371</v>
       </c>
       <c r="B241" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
@@ -4926,10 +4925,10 @@
     </row>
     <row r="242" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="B242" t="s">
-        <v>382</v>
+        <v>503</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
@@ -4938,10 +4937,10 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="B243" t="s">
-        <v>384</v>
+        <v>509</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
@@ -4950,10 +4949,10 @@
     </row>
     <row r="244" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>385</v>
+        <v>424</v>
       </c>
       <c r="B244" t="s">
-        <v>386</v>
+        <v>522</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
@@ -4962,10 +4961,10 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>441</v>
+        <v>373</v>
       </c>
       <c r="B245" t="s">
-        <v>440</v>
+        <v>504</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
@@ -4974,10 +4973,10 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="B246" t="s">
-        <v>477</v>
+        <v>375</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
@@ -4985,11 +4984,11 @@
       <c r="F246" s="2"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>388</v>
+      <c r="A247" s="4" t="s">
+        <v>532</v>
       </c>
       <c r="B247" t="s">
-        <v>389</v>
+        <v>533</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
@@ -4998,10 +4997,10 @@
     </row>
     <row r="248" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="B248" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
@@ -5010,10 +5009,10 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="B249" t="s">
-        <v>505</v>
+        <v>378</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
@@ -5022,247 +5021,239 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="B250" t="s">
-        <v>465</v>
+        <v>380</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>393</v>
+        <v>425</v>
       </c>
       <c r="B251" t="s">
-        <v>394</v>
+        <v>510</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>395</v>
+        <v>426</v>
       </c>
       <c r="B252" t="s">
-        <v>396</v>
+        <v>432</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>397</v>
+        <v>426</v>
       </c>
       <c r="B253" t="s">
-        <v>398</v>
+        <v>432</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="B254" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>427</v>
+        <v>383</v>
       </c>
       <c r="B255" t="s">
-        <v>475</v>
+        <v>384</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>428</v>
+        <v>385</v>
       </c>
       <c r="B256" t="s">
-        <v>431</v>
+        <v>386</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>401</v>
+        <v>441</v>
       </c>
       <c r="B257" t="s">
-        <v>402</v>
+        <v>440</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>430</v>
+        <v>387</v>
       </c>
       <c r="B258" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="B259" t="s">
-        <v>506</v>
+        <v>389</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="B260" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="B261" t="s">
-        <v>406</v>
+        <v>505</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="B262" t="s">
-        <v>408</v>
+        <v>465</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>424</v>
+        <v>393</v>
       </c>
       <c r="B263" t="s">
-        <v>522</v>
+        <v>394</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="B264" t="s">
-        <v>436</v>
+        <v>396</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>428</v>
+        <v>525</v>
       </c>
       <c r="B265" t="s">
-        <v>431</v>
+        <v>526</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B266" t="s">
-        <v>438</v>
+        <v>398</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="B267" t="s">
-        <v>437</v>
+        <v>400</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>527</v>
+        <v>427</v>
       </c>
       <c r="B268" t="s">
-        <v>524</v>
+        <v>475</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B269" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>525</v>
+        <v>428</v>
       </c>
       <c r="B270" t="s">
-        <v>526</v>
+        <v>431</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B271" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>530</v>
+        <v>401</v>
       </c>
       <c r="B272" t="s">
-        <v>531</v>
+        <v>402</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="4" t="s">
-        <v>532</v>
+      <c r="A273" t="s">
+        <v>430</v>
       </c>
       <c r="B273" t="s">
-        <v>533</v>
+        <v>476</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>534</v>
+        <v>403</v>
       </c>
       <c r="B274" t="s">
-        <v>535</v>
+        <v>506</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="B275" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>538</v>
+        <v>404</v>
       </c>
       <c r="B276" t="s">
-        <v>539</v>
+        <v>521</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>541</v>
+        <v>405</v>
       </c>
       <c r="B277" t="s">
-        <v>542</v>
+        <v>406</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>441</v>
+        <v>407</v>
       </c>
       <c r="B278" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>543</v>
-      </c>
-      <c r="B279" s="5" t="s">
-        <v>544</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B262">
-    <sortCondition ref="A1"/>
+  <sortState ref="A1:B278">
+    <sortCondition ref="A1:A278"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/config/RutoValidEng.xlsx
+++ b/config/RutoValidEng.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F222D7-BD0F-4B5F-89CF-F921268A0CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -198,12 +199,6 @@
     <t>Bulgaria</t>
   </si>
   <si>
-    <t>Боливия, Многонациональное Государство</t>
-  </si>
-  <si>
-    <t>Бонайре, Саба и Синт-Эстатиус</t>
-  </si>
-  <si>
     <t>Босния и Герцеговина</t>
   </si>
   <si>
@@ -1374,9 +1369,6 @@
     <t>Ливия</t>
   </si>
   <si>
-    <t>LaoS</t>
-  </si>
-  <si>
     <t>Curacao</t>
   </si>
   <si>
@@ -1654,12 +1646,21 @@
   </si>
   <si>
     <t>San_Tome_and_Principy</t>
+  </si>
+  <si>
+    <t>Боливия</t>
+  </si>
+  <si>
+    <t>Бонайре</t>
+  </si>
+  <si>
+    <t>Laos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1724,7 +1725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1735,6 +1736,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2007,19 +2011,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:F278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="B278" sqref="A1:B278"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2108,7 +2112,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2168,7 +2172,7 @@
         <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2345,7 +2349,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>542</v>
       </c>
       <c r="B27" t="s">
         <v>44</v>
@@ -2357,10 +2361,10 @@
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>543</v>
       </c>
       <c r="B28" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2369,10 +2373,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2405,10 +2409,10 @@
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B32" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2417,10 +2421,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B33" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2429,7 +2433,7 @@
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s">
         <v>49</v>
@@ -2456,7 +2460,7 @@
         <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -2465,10 +2469,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -2477,10 +2481,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2489,10 +2493,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2501,10 +2505,10 @@
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B40" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -2513,10 +2517,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B41" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2525,10 +2529,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2537,10 +2541,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2549,10 +2553,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B44" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2561,10 +2565,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B45" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2573,10 +2577,10 @@
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B46" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2585,10 +2589,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2597,10 +2601,10 @@
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2609,10 +2613,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B49" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2621,10 +2625,10 @@
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2633,10 +2637,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2645,10 +2649,10 @@
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2657,10 +2661,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2669,10 +2673,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B54" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2681,10 +2685,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B55" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2693,10 +2697,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B56" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2705,10 +2709,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2717,10 +2721,10 @@
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B58" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2729,10 +2733,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B59" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2741,10 +2745,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B60" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2753,10 +2757,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B61" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2765,10 +2769,10 @@
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B62" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2777,10 +2781,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B63" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2789,10 +2793,10 @@
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B64" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2801,10 +2805,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B65" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2813,10 +2817,10 @@
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B66" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2825,10 +2829,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B67" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2837,10 +2841,10 @@
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B68" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2849,10 +2853,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B69" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2861,10 +2865,10 @@
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B70" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2873,10 +2877,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B71" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2885,10 +2889,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B72" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2897,10 +2901,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B73" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2909,10 +2913,10 @@
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B74" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2921,10 +2925,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B75" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2933,10 +2937,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B76" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2945,10 +2949,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B77" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2957,10 +2961,10 @@
     </row>
     <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B78" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2969,10 +2973,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B79" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2981,10 +2985,10 @@
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B80" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2993,10 +2997,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B81" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3005,10 +3009,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B82" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3017,10 +3021,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B83" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3029,10 +3033,10 @@
     </row>
     <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B84" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3041,10 +3045,10 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B85" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3053,10 +3057,10 @@
     </row>
     <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B86" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3065,10 +3069,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B87" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3077,10 +3081,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B88" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3089,10 +3093,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B89" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3101,10 +3105,10 @@
     </row>
     <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B90" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3113,10 +3117,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B91" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3125,10 +3129,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B92" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3137,10 +3141,10 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B93" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3149,10 +3153,10 @@
     </row>
     <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B94" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3161,10 +3165,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B95" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3173,10 +3177,10 @@
     </row>
     <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B96" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3185,10 +3189,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B97" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3197,10 +3201,10 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B98" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3209,10 +3213,10 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B99" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -3221,10 +3225,10 @@
     </row>
     <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B100" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3233,10 +3237,10 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B101" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -3245,10 +3249,10 @@
     </row>
     <row r="102" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B102" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3257,10 +3261,10 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B103" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3269,10 +3273,10 @@
     </row>
     <row r="104" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B104" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3281,10 +3285,10 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B105" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3293,10 +3297,10 @@
     </row>
     <row r="106" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B106" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3305,10 +3309,10 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B107" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -3317,10 +3321,10 @@
     </row>
     <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B108" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -3329,10 +3333,10 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B109" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -3341,10 +3345,10 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B110" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -3353,10 +3357,10 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B111" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -3365,10 +3369,10 @@
     </row>
     <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B112" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -3377,10 +3381,10 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B113" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -3389,10 +3393,10 @@
     </row>
     <row r="114" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B114" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3401,10 +3405,10 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B115" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -3413,10 +3417,10 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>185</v>
-      </c>
-      <c r="B116" t="s">
-        <v>451</v>
+        <v>183</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>544</v>
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -3425,10 +3429,10 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B117" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -3437,10 +3441,10 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B118" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -3449,10 +3453,10 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B119" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -3461,10 +3465,10 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B120" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -3473,10 +3477,10 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B121" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -3485,10 +3489,10 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B122" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -3497,10 +3501,10 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B123" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -3509,10 +3513,10 @@
     </row>
     <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B124" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -3521,10 +3525,10 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B125" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -3533,10 +3537,10 @@
     </row>
     <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B126" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -3545,10 +3549,10 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B127" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -3557,10 +3561,10 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B128" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -3569,10 +3573,10 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B129" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3581,10 +3585,10 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B130" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3593,10 +3597,10 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B131" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -3605,10 +3609,10 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B132" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3617,10 +3621,10 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B133" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3629,10 +3633,10 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B134" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -3641,10 +3645,10 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B135" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -3653,10 +3657,10 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B136" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -3665,10 +3669,10 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B137" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -3677,10 +3681,10 @@
     </row>
     <row r="138" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B138" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -3689,10 +3693,10 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B139" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -3701,10 +3705,10 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B140" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3713,10 +3717,10 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B141" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -3725,10 +3729,10 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B142" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3737,10 +3741,10 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B143" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -3749,10 +3753,10 @@
     </row>
     <row r="144" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B144" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3761,10 +3765,10 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B145" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -3773,10 +3777,10 @@
     </row>
     <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B146" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -3785,10 +3789,10 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B147" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -3797,10 +3801,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B148" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -3809,10 +3813,10 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B149" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -3821,10 +3825,10 @@
     </row>
     <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B150" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -3833,10 +3837,10 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B151" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3845,10 +3849,10 @@
     </row>
     <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B152" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3857,10 +3861,10 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B153" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3869,10 +3873,10 @@
     </row>
     <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B154" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -3881,10 +3885,10 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B155" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -3893,10 +3897,10 @@
     </row>
     <row r="156" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B156" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -3905,10 +3909,10 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B157" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -3917,10 +3921,10 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B158" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -3929,10 +3933,10 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B159" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -3941,10 +3945,10 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B160" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -3953,10 +3957,10 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B161" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -3965,10 +3969,10 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B162" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -3977,10 +3981,10 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B163" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -3989,10 +3993,10 @@
     </row>
     <row r="164" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B164" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -4001,10 +4005,10 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B165" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -4013,10 +4017,10 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B166" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -4025,10 +4029,10 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B167" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -4037,10 +4041,10 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B168" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -4049,10 +4053,10 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B169" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -4061,10 +4065,10 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B170" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -4073,10 +4077,10 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B171" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -4085,10 +4089,10 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B172" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -4097,10 +4101,10 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B173" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -4109,10 +4113,10 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B174" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -4121,10 +4125,10 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B175" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -4133,10 +4137,10 @@
     </row>
     <row r="176" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B176" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -4145,10 +4149,10 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B177" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -4157,10 +4161,10 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B178" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -4169,10 +4173,10 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B179" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -4181,10 +4185,10 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B180" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -4193,10 +4197,10 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B181" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -4205,10 +4209,10 @@
     </row>
     <row r="182" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B182" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -4217,10 +4221,10 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B183" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -4229,10 +4233,10 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B184" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -4241,10 +4245,10 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B185" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -4253,10 +4257,10 @@
     </row>
     <row r="186" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B186" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -4265,10 +4269,10 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B187" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -4277,10 +4281,10 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B188" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -4289,10 +4293,10 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -4301,10 +4305,10 @@
     </row>
     <row r="190" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B190" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -4313,10 +4317,10 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B191" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -4325,10 +4329,10 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B192" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -4337,10 +4341,10 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B193" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -4349,10 +4353,10 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B194" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -4361,10 +4365,10 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B195" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
@@ -4373,10 +4377,10 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B196" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
@@ -4385,10 +4389,10 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B197" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
@@ -4397,10 +4401,10 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B198" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
@@ -4409,10 +4413,10 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B199" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
@@ -4421,10 +4425,10 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B200" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
@@ -4433,10 +4437,10 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B201" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
@@ -4445,10 +4449,10 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B202" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
@@ -4457,10 +4461,10 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B203" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
@@ -4469,10 +4473,10 @@
     </row>
     <row r="204" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B204" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
@@ -4481,10 +4485,10 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B205" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
@@ -4493,10 +4497,10 @@
     </row>
     <row r="206" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B206" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
@@ -4505,10 +4509,10 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B207" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
@@ -4517,10 +4521,10 @@
     </row>
     <row r="208" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B208" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
@@ -4529,10 +4533,10 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B209" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
@@ -4541,10 +4545,10 @@
     </row>
     <row r="210" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B210" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
@@ -4553,10 +4557,10 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B211" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
@@ -4565,10 +4569,10 @@
     </row>
     <row r="212" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B212" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
@@ -4577,10 +4581,10 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B213" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
@@ -4589,10 +4593,10 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B214" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
@@ -4601,10 +4605,10 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B215" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
@@ -4613,10 +4617,10 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B216" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
@@ -4625,10 +4629,10 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B217" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
@@ -4637,10 +4641,10 @@
     </row>
     <row r="218" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B218" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
@@ -4649,10 +4653,10 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B219" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
@@ -4661,10 +4665,10 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B220" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
@@ -4673,10 +4677,10 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B221" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
@@ -4685,10 +4689,10 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B222" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
@@ -4697,10 +4701,10 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B223" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
@@ -4709,10 +4713,10 @@
     </row>
     <row r="224" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B224" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
@@ -4721,10 +4725,10 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B225" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
@@ -4733,10 +4737,10 @@
     </row>
     <row r="226" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B226" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
@@ -4745,10 +4749,10 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B227" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
@@ -4757,10 +4761,10 @@
     </row>
     <row r="228" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B228" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
@@ -4769,10 +4773,10 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B229" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
@@ -4781,10 +4785,10 @@
     </row>
     <row r="230" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B230" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
@@ -4793,10 +4797,10 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B231" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
@@ -4805,10 +4809,10 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B232" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
@@ -4817,10 +4821,10 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B233" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
@@ -4829,10 +4833,10 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B234" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
@@ -4841,10 +4845,10 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B235" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
@@ -4853,10 +4857,10 @@
     </row>
     <row r="236" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B236" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
@@ -4865,10 +4869,10 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B237" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
@@ -4877,10 +4881,10 @@
     </row>
     <row r="238" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B238" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
@@ -4889,10 +4893,10 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B239" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
@@ -4901,10 +4905,10 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B240" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
@@ -4913,10 +4917,10 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B241" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
@@ -4925,10 +4929,10 @@
     </row>
     <row r="242" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B242" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
@@ -4937,10 +4941,10 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B243" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
@@ -4949,10 +4953,10 @@
     </row>
     <row r="244" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B244" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
@@ -4961,10 +4965,10 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B245" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
@@ -4973,10 +4977,10 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B246" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
@@ -4985,10 +4989,10 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B247" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
@@ -4997,10 +5001,10 @@
     </row>
     <row r="248" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B248" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
@@ -5009,10 +5013,10 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B249" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
@@ -5021,238 +5025,238 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B250" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B251" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B252" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B253" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B254" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B255" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B256" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B257" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B258" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B259" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B260" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B261" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B262" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B263" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B264" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B265" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B266" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B267" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B268" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B269" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B270" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B271" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B272" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B273" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B274" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B275" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B276" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B277" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B278" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:B278">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B278">
     <sortCondition ref="A1:A278"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
